--- a/ТЭО.xlsx
+++ b/ТЭО.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29524F3-4B68-4377-8929-8AEB99900FF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FA2005-BF02-4F1D-BAC2-D8EBC51C24AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15045" yWindow="900" windowWidth="11970" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="2190" windowWidth="11970" windowHeight="15105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t xml:space="preserve">Исполнитель </t>
   </si>
@@ -42,18 +43,12 @@
     <t xml:space="preserve">Заработная плата, руб. </t>
   </si>
   <si>
-    <t>Зсз=</t>
-  </si>
-  <si>
     <t>Зд=</t>
   </si>
   <si>
     <t>Зо*Нд/100=</t>
   </si>
   <si>
-    <t>*20/100=</t>
-  </si>
-  <si>
     <t>Нд</t>
   </si>
   <si>
@@ -109,6 +104,30 @@
   </si>
   <si>
     <t>Зр=</t>
+  </si>
+  <si>
+    <t>НДС=</t>
+  </si>
+  <si>
+    <t>Цгод. Подписки</t>
+  </si>
+  <si>
+    <t>Пед=</t>
+  </si>
+  <si>
+    <t>П=</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>ЧП=</t>
+  </si>
+  <si>
+    <t>*15/100=</t>
+  </si>
+  <si>
+    <t>Зсоц=</t>
   </si>
 </sst>
 </file>
@@ -175,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -221,6 +240,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,13 +546,13 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>1</v>
@@ -545,10 +567,10 @@
         <v>4</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -556,28 +578,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8">
         <v>1150</v>
       </c>
-      <c r="E2" s="8">
-        <v>6.85</v>
+      <c r="E2" s="7">
+        <f>D2/168</f>
+        <v>6.8452380952380949</v>
       </c>
       <c r="F2" s="8">
         <v>140</v>
       </c>
       <c r="G2" s="17">
         <f>E2*F2</f>
-        <v>959</v>
+        <v>958.33333333333326</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J2" s="18">
         <f>G7</f>
-        <v>2617.0500000000002</v>
+        <v>2616.0714285714284</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
@@ -585,28 +608,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8">
         <v>2400</v>
       </c>
-      <c r="E3" s="8">
-        <v>14.29</v>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E5" si="0">D3/168</f>
+        <v>14.285714285714286</v>
       </c>
       <c r="F3" s="8">
         <v>20</v>
       </c>
       <c r="G3" s="17">
-        <f t="shared" ref="G3:G5" si="0">E3*F3</f>
-        <v>285.79999999999995</v>
+        <f t="shared" ref="G3:G5" si="1">E3*F3</f>
+        <v>285.71428571428572</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J3" s="18">
         <f>F11</f>
-        <v>392.5575</v>
+        <v>392.41071428571428</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -614,28 +638,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10">
         <v>2300</v>
       </c>
-      <c r="E4" s="10">
-        <v>13.69</v>
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
+        <v>13.69047619047619</v>
       </c>
       <c r="F4" s="10">
         <v>30</v>
       </c>
       <c r="G4" s="17">
-        <f t="shared" si="0"/>
-        <v>410.7</v>
+        <f t="shared" si="1"/>
+        <v>410.71428571428567</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J4" s="18">
         <f>F13</f>
-        <v>1041.3241950000001</v>
+        <v>1040.9348214285715</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -643,46 +668,47 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8">
         <v>750</v>
       </c>
-      <c r="E5" s="8">
-        <v>4.46</v>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>4.4642857142857144</v>
       </c>
       <c r="F5" s="8">
         <v>20</v>
       </c>
       <c r="G5" s="17">
-        <f t="shared" si="0"/>
-        <v>89.2</v>
+        <f t="shared" si="1"/>
+        <v>89.285714285714292</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J5" s="18">
         <f>F15</f>
-        <v>3140.46</v>
+        <v>3139.2857142857142</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="13">
         <v>0.5</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J6" s="18">
         <f>SUM(J2:J5)</f>
-        <v>7191.3916950000003</v>
+        <v>7188.7026785714279</v>
       </c>
       <c r="K6" s="12"/>
     </row>
@@ -695,18 +721,24 @@
       <c r="F7" s="11"/>
       <c r="G7" s="17">
         <f>SUM(G2:G5)+SUM(G2:G5)*G6</f>
-        <v>2617.0500000000002</v>
+        <v>2616.0714285714284</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -720,24 +752,30 @@
       <c r="D9">
         <v>120</v>
       </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
         <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
       </c>
       <c r="D11" s="1">
         <f>G7</f>
-        <v>2617.0500000000002</v>
+        <v>2616.0714285714284</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F11" s="16">
         <f>G7*B9/100</f>
-        <v>392.5575</v>
+        <v>392.41071428571428</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -745,11 +783,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F13" s="16">
         <f>(G7+F11)*C9/100</f>
-        <v>1041.3241950000001</v>
+        <v>1040.9348214285715</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -757,29 +795,65 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F15" s="16">
         <f>G7*D9/100</f>
-        <v>3140.46</v>
+        <v>3139.2857142857142</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F18" s="15">
         <f>J6*10/100</f>
-        <v>719.13916949999998</v>
+        <v>718.87026785714272</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F20" s="16">
         <f>J6+F18</f>
-        <v>7910.5308645000005</v>
+        <v>7907.5729464285705</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="15">
+        <f>E9*20/120</f>
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="15">
+        <f>E9-F22-F20/1000</f>
+        <v>6.2590937202380958</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="15">
+        <f>F24*F9</f>
+        <v>6259.0937202380956</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28">
+        <f>F26-(F26*20/100)</f>
+        <v>5007.2749761904761</v>
       </c>
     </row>
   </sheetData>
@@ -789,4 +863,277 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD305A8A-3BC0-4D1A-A327-B0E46C22B4BB}">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="57.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8">
+        <v>1150</v>
+      </c>
+      <c r="E2" s="7">
+        <f>D2/168</f>
+        <v>6.8452380952380949</v>
+      </c>
+      <c r="F2" s="8">
+        <v>140</v>
+      </c>
+      <c r="G2" s="17">
+        <f>E2*F2</f>
+        <v>958.33333333333326</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="18">
+        <f>G4</f>
+        <v>1437.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="18">
+        <f>F8</f>
+        <v>215.625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="17">
+        <f>SUM(G2:G2)+SUM(G2:G2)*G3</f>
+        <v>1437.5</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="18">
+        <f>F10</f>
+        <v>571.98125000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="18">
+        <f>F12</f>
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <f>34+0.6</f>
+        <v>34.6</v>
+      </c>
+      <c r="D6">
+        <v>120</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="18">
+        <f>SUM(J2:J5)</f>
+        <v>3950.1062499999998</v>
+      </c>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16">
+        <f>G4</f>
+        <v>1437.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="16">
+        <f>G4*B6/100</f>
+        <v>215.625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="16">
+        <f>(G4+F8)*C6/100</f>
+        <v>571.98125000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="16">
+        <f>G4*D6/100</f>
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="15">
+        <f>J6*10/100</f>
+        <v>395.010625</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="16">
+        <f>J6+F15</f>
+        <v>4345.1168749999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="15">
+        <f>E6*20/120</f>
+        <v>166.66666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="15">
+        <f>E6-F19-F17/1000</f>
+        <v>828.98821645833334</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="15">
+        <f>F21*F6</f>
+        <v>82898.821645833334</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="15">
+        <f>F23-(F23*20/100)</f>
+        <v>66319.057316666673</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ТЭО.xlsx
+++ b/ТЭО.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FA2005-BF02-4F1D-BAC2-D8EBC51C24AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DB610E-6487-40F3-AC93-4DED58CA1019}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2190" windowWidth="11970" windowHeight="15105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22785" yWindow="1140" windowWidth="11970" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD305A8A-3BC0-4D1A-A327-B0E46C22B4BB}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1018,7 @@
         <v>120</v>
       </c>
       <c r="E6">
-        <v>1000</v>
+        <v>199</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F19" s="15">
         <f>E6*20/120</f>
-        <v>166.66666666666666</v>
+        <v>33.166666666666664</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="F21" s="15">
         <f>E6-F19-F17/1000</f>
-        <v>828.98821645833334</v>
+        <v>161.48821645833334</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="F23" s="15">
         <f>F21*F6</f>
-        <v>82898.821645833334</v>
+        <v>16148.821645833334</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="F25" s="15">
         <f>F23-(F23*20/100)</f>
-        <v>66319.057316666673</v>
+        <v>12919.057316666667</v>
       </c>
     </row>
   </sheetData>

--- a/ТЭО.xlsx
+++ b/ТЭО.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DB610E-6487-40F3-AC93-4DED58CA1019}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25B142C-4D45-48C4-BF2B-5DD64AEE7C84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22785" yWindow="1140" windowWidth="11970" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15750" yWindow="495" windowWidth="11970" windowHeight="15105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t xml:space="preserve">Исполнитель </t>
   </si>
@@ -46,9 +46,6 @@
     <t>Зд=</t>
   </si>
   <si>
-    <t>Зо*Нд/100=</t>
-  </si>
-  <si>
     <t>Нд</t>
   </si>
   <si>
@@ -124,17 +121,74 @@
     <t>ЧП=</t>
   </si>
   <si>
-    <t>*15/100=</t>
-  </si>
-  <si>
     <t>Зсоц=</t>
+  </si>
+  <si>
+    <t>Показатель</t>
+  </si>
+  <si>
+    <t>Расчетный период</t>
+  </si>
+  <si>
+    <t>РЕЗУЛЬТАТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Экономический эффект</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>Дисконтированный результат</t>
+  </si>
+  <si>
+    <t>ЗАТРАТЫ</t>
+  </si>
+  <si>
+    <t>Инвестиции в разработку</t>
+  </si>
+  <si>
+    <t>программного средства</t>
+  </si>
+  <si>
+    <t xml:space="preserve">– </t>
+  </si>
+  <si>
+    <t>Дисконтированные инвестиции</t>
+  </si>
+  <si>
+    <t>Чистый дисконтированный доход по годам</t>
+  </si>
+  <si>
+    <t>Чистый дисконтированный доход</t>
+  </si>
+  <si>
+    <t>нарастающим итогом</t>
+  </si>
+  <si>
+    <t>Коэффициент дисконтирования</t>
+  </si>
+  <si>
+    <t>Eн</t>
+  </si>
+  <si>
+    <t>Рц=</t>
+  </si>
+  <si>
+    <t>Инвестиции в разработку программного средства</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +203,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -158,7 +219,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -190,11 +251,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -244,6 +386,88 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,20 +763,25 @@
     <col min="5" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="57.140625" customWidth="1"/>
+    <col min="9" max="9" width="72.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="33.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>1</v>
@@ -566,19 +795,28 @@
       <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="20"/>
+      <c r="N1" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="47"/>
+      <c r="P1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8">
@@ -595,20 +833,33 @@
         <f>E2*F2</f>
         <v>958.33333333333326</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="18">
+      <c r="I2" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="29">
         <f>G7</f>
         <v>2616.0714285714284</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="L2" s="46"/>
+      <c r="M2" s="26">
+        <v>2017</v>
+      </c>
+      <c r="N2" s="26">
+        <v>2018</v>
+      </c>
+      <c r="O2" s="26">
+        <v>2019</v>
+      </c>
+      <c r="P2" s="26">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8">
@@ -625,20 +876,29 @@
         <f t="shared" ref="G3:G5" si="1">E3*F3</f>
         <v>285.71428571428572</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="18">
-        <f>F11</f>
+      <c r="I3" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="29">
+        <f>C11</f>
         <v>392.41071428571428</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="L3" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="23"/>
+      <c r="N3" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="47"/>
+      <c r="P3" s="25"/>
+    </row>
+    <row r="4" spans="1:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10">
@@ -655,20 +915,38 @@
         <f t="shared" si="1"/>
         <v>410.71428571428567</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="18">
-        <f>F13</f>
+      <c r="I4" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="29">
+        <f>C13</f>
         <v>1040.9348214285715</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="L4" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="31">
+        <f>$C$28</f>
+        <v>5007.2749761904761</v>
+      </c>
+      <c r="O4" s="31">
+        <f>$C$28</f>
+        <v>5007.2749761904761</v>
+      </c>
+      <c r="P4" s="31">
+        <f>$C$28</f>
+        <v>5007.2749761904761</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8">
@@ -685,34 +963,61 @@
         <f t="shared" si="1"/>
         <v>89.285714285714292</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="18">
-        <f>F15</f>
+      <c r="I5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="29">
+        <f>C15</f>
         <v>3139.2857142857142</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="L5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="31">
+        <f>N4*N13</f>
+        <v>4392.3464703425225</v>
+      </c>
+      <c r="O5" s="31">
+        <f>O4*O13</f>
+        <v>3852.935500300458</v>
+      </c>
+      <c r="P5" s="31">
+        <f>P4*P13</f>
+        <v>3379.7679827196998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="13">
         <v>0.5</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="18">
+      <c r="I6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="29">
         <f>SUM(J2:J5)</f>
         <v>7188.7026785714279</v>
       </c>
       <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L6" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="24"/>
+      <c r="N6" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="47"/>
+      <c r="P6" s="26"/>
+    </row>
+    <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -723,25 +1028,51 @@
         <f>SUM(G2:G5)+SUM(G2:G5)*G6</f>
         <v>2616.0714285714284</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="48">
+        <f>$C$20</f>
+        <v>7907.5729464285705</v>
+      </c>
+      <c r="N7" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+    </row>
+    <row r="9" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>15</v>
       </c>
@@ -758,107 +1089,233 @@
       <c r="F9">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="32">
+        <f>$C$20</f>
+        <v>7907.5729464285705</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="32">
+        <f>-$C$20</f>
+        <v>-7907.5729464285705</v>
+      </c>
+      <c r="N10" s="31">
+        <f>N4*N13</f>
+        <v>4392.3464703425225</v>
+      </c>
+      <c r="O10" s="31">
+        <f t="shared" ref="O10:P10" si="2">O4*O13</f>
+        <v>3852.935500300458</v>
+      </c>
+      <c r="P10" s="31">
+        <f t="shared" si="2"/>
+        <v>3379.7679827196998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1">
-        <f>G7</f>
-        <v>2616.0714285714284</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="16">
+      <c r="C11" s="16">
         <f>G7*B9/100</f>
         <v>392.41071428571428</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+      <c r="L11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="48">
+        <f>-$C$20</f>
+        <v>-7907.5729464285705</v>
+      </c>
+      <c r="N11" s="48">
+        <f>M11+N10</f>
+        <v>-3515.226476086048</v>
+      </c>
+      <c r="O11" s="48">
+        <f t="shared" ref="O11:P11" si="3">N11+O10</f>
+        <v>337.70902421440996</v>
+      </c>
+      <c r="P11" s="48">
+        <f t="shared" si="3"/>
+        <v>3717.4770069341098</v>
+      </c>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="16"/>
+      <c r="L12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+    </row>
+    <row r="13" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="16">
-        <f>(G7+F11)*C9/100</f>
+        <v>31</v>
+      </c>
+      <c r="C13" s="16">
+        <f>(G7+C11)*C9/100</f>
         <v>1040.9348214285715</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="26">
+        <f>(1+$G$9)^(1-M14)</f>
+        <v>1</v>
+      </c>
+      <c r="N13" s="30">
+        <f t="shared" ref="N13:P13" si="4">(1+$G$9)^(1-N14)</f>
+        <v>0.8771929824561403</v>
+      </c>
+      <c r="O13" s="30">
+        <f t="shared" si="4"/>
+        <v>0.76946752847029842</v>
+      </c>
+      <c r="P13" s="30">
+        <f t="shared" si="4"/>
+        <v>0.67497151620201612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C14" s="16"/>
+      <c r="M14" s="33">
+        <v>1</v>
+      </c>
+      <c r="N14" s="33">
+        <v>2</v>
+      </c>
+      <c r="O14" s="33">
+        <v>3</v>
+      </c>
+      <c r="P14" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="16">
+        <v>9</v>
+      </c>
+      <c r="C15" s="16">
         <f>G7*D9/100</f>
         <v>3139.2857142857142</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="15">
+        <v>23</v>
+      </c>
+      <c r="C18" s="15">
         <f>J6*10/100</f>
         <v>718.87026785714272</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="16">
+        <f>J6+C18</f>
+        <v>7907.5729464285705</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="16">
-        <f>J6+F18</f>
-        <v>7907.5729464285705</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="15">
+      <c r="C22" s="15">
         <f>E9*20/120</f>
         <v>2.8333333333333335</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="15">
+        <f>E9-C22-C20/1000</f>
+        <v>6.2590937202380958</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="15">
-        <f>E9-F22-F20/1000</f>
-        <v>6.2590937202380958</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="15">
-        <f>F24*F9</f>
+      <c r="C26" s="15">
+        <f>C24*F9</f>
         <v>6259.0937202380956</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28">
-        <f>F26-(F26*20/100)</f>
+        <v>30</v>
+      </c>
+      <c r="C28" s="15">
+        <f>C26-(C26*20/100)</f>
         <v>5007.2749761904761</v>
       </c>
     </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="34">
+        <f>SUM(N10:P10)/C20</f>
+        <v>1.4701160561045592</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>5008</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <f>D42-D43</f>
+        <v>496</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="13">
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
     <mergeCell ref="A6:F6"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -867,16 +1324,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD305A8A-3BC0-4D1A-A327-B0E46C22B4BB}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
@@ -884,17 +1341,22 @@
     <col min="9" max="9" width="57.140625" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>1</v>
@@ -909,18 +1371,27 @@
         <v>4</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="20"/>
+      <c r="N1" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="47"/>
+      <c r="P1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8">
@@ -931,39 +1402,61 @@
         <v>6.8452380952380949</v>
       </c>
       <c r="F2" s="8">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="G2" s="17">
         <f>E2*F2</f>
-        <v>958.33333333333326</v>
+        <v>547.61904761904759</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="18">
         <f>G4</f>
-        <v>1437.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+        <v>821.42857142857133</v>
+      </c>
+      <c r="L2" s="46"/>
+      <c r="M2" s="26">
+        <v>2019</v>
+      </c>
+      <c r="N2" s="26">
+        <v>2020</v>
+      </c>
+      <c r="O2" s="26">
+        <v>2021</v>
+      </c>
+      <c r="P2" s="26">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="13">
         <v>0.5</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" s="18">
-        <f>F8</f>
-        <v>215.625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+        <f>C9</f>
+        <v>123.21428571428571</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="23"/>
+      <c r="N3" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="47"/>
+      <c r="P3" s="25"/>
+    </row>
+    <row r="4" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -972,166 +1465,342 @@
       <c r="F4" s="11"/>
       <c r="G4" s="17">
         <f>SUM(G2:G2)+SUM(G2:G2)*G3</f>
-        <v>1437.5</v>
+        <v>821.42857142857133</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="18">
+        <f>C10</f>
+        <v>326.84642857142853</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="31">
+        <f>$C$17</f>
+        <v>13068.032752380952</v>
+      </c>
+      <c r="O4" s="31">
+        <f>$C$17</f>
+        <v>13068.032752380952</v>
+      </c>
+      <c r="P4" s="31">
+        <f>$C$17</f>
+        <v>13068.032752380952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
+      <c r="I5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="18">
-        <f>F10</f>
-        <v>571.98125000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="J5" s="18">
+        <f>C11</f>
+        <v>985.71428571428567</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="31">
+        <f>N4*N12</f>
+        <v>11880.029774891775</v>
+      </c>
+      <c r="O5" s="31">
+        <f>O4*O12</f>
+        <v>10800.027068083431</v>
+      </c>
+      <c r="P5" s="31">
+        <f>P4*P12</f>
+        <v>9818.2064255303885</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="E6" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="18">
-        <f>F12</f>
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="J6" s="18">
+        <f>SUM(J2:J5)</f>
+        <v>2257.2035714285712</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="24"/>
+      <c r="N6" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="47"/>
+      <c r="P6" s="26"/>
+    </row>
+    <row r="7" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
         <v>15</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="5">
         <f>34+0.6</f>
         <v>34.6</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="5">
         <v>120</v>
       </c>
-      <c r="E6">
+      <c r="E7" s="5">
         <v>199</v>
       </c>
-      <c r="F6">
+      <c r="F7" s="5">
         <v>100</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="18">
-        <f>SUM(J2:J5)</f>
-        <v>3950.1062499999998</v>
-      </c>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="G7" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="49">
+        <f>$C$13</f>
+        <v>2482.9239285714284</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="32">
+        <f>$C$13</f>
+        <v>2482.9239285714284</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="16">
-        <f>G4</f>
-        <v>1437.5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="16">
-        <f>G4*B6/100</f>
-        <v>215.625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="16">
-        <f>(G4+F8)*C6/100</f>
-        <v>571.98125000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="16">
-        <f>G4*D6/100</f>
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="C9" s="18">
+        <f>G4*B7/100</f>
+        <v>123.21428571428571</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="L9" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="32">
+        <f>-$C$13</f>
+        <v>-2482.9239285714284</v>
+      </c>
+      <c r="N9" s="31">
+        <f>N4*N12</f>
+        <v>11880.029774891775</v>
+      </c>
+      <c r="O9" s="31">
+        <f>O4*O12</f>
+        <v>10800.027068083431</v>
+      </c>
+      <c r="P9" s="31">
+        <f>P4*P12</f>
+        <v>9818.2064255303885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="18">
+        <f>(G4+C9)*C7/100</f>
+        <v>326.84642857142853</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="48">
+        <f>-$C$13</f>
+        <v>-2482.9239285714284</v>
+      </c>
+      <c r="N10" s="48">
+        <f>M10+N9</f>
+        <v>9397.1058463203462</v>
+      </c>
+      <c r="O10" s="48">
+        <f t="shared" ref="O10:P10" si="0">N10+O9</f>
+        <v>20197.132914403777</v>
+      </c>
+      <c r="P10" s="48">
+        <f t="shared" si="0"/>
+        <v>30015.339339934166</v>
+      </c>
+      <c r="Q10" s="15">
+        <f>SUM(N9:P9)</f>
+        <v>32498.263268505594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="18">
+        <f>G4*D7/100</f>
+        <v>985.71428571428567</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+    </row>
+    <row r="12" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="42">
+        <f>J6*10/100</f>
+        <v>225.7203571428571</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="26">
+        <f>(1+$G$7)^(1-M13)</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="30">
+        <f t="shared" ref="N12:O12" si="1">(1+$G$7)^(1-N13)</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="O12" s="30">
+        <f t="shared" si="1"/>
+        <v>0.82644628099173545</v>
+      </c>
+      <c r="P12" s="30">
+        <f>(1+$G$7)^(1-P13)</f>
+        <v>0.75131480090157754</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="15">
-        <f>J6*10/100</f>
-        <v>395.010625</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C13" s="18">
+        <f>J6+C12</f>
+        <v>2482.9239285714284</v>
+      </c>
+      <c r="M13" s="33">
+        <v>1</v>
+      </c>
+      <c r="N13" s="33">
+        <v>2</v>
+      </c>
+      <c r="O13" s="33">
+        <v>3</v>
+      </c>
+      <c r="P13" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="16">
-        <f>J6+F15</f>
-        <v>4345.1168749999997</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="15">
-        <f>E6*20/120</f>
+      <c r="C14" s="42">
+        <f>E7*20/120</f>
         <v>33.166666666666664</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="42">
+        <f>E7-C14-C13/1000</f>
+        <v>163.3504094047619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="15">
-        <f>E6-F19-F17/1000</f>
-        <v>161.48821645833334</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="15">
-        <f>F21*F6</f>
-        <v>16148.821645833334</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="15">
-        <f>F23-(F23*20/100)</f>
-        <v>12919.057316666667</v>
+      <c r="C16" s="42">
+        <f>C15*F7</f>
+        <v>16335.04094047619</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="42">
+        <f>C16-(C16*20/100)</f>
+        <v>13068.032752380952</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="43">
+        <f>SUM(N9:P9)/C13</f>
+        <v>13.08870678418398</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="9">
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
     <mergeCell ref="A3:F3"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ТЭО.xlsx
+++ b/ТЭО.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25B142C-4D45-48C4-BF2B-5DD64AEE7C84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EE5D9A-4517-41E4-9C84-BF323F0898CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15750" yWindow="495" windowWidth="11970" windowHeight="15105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,23 +451,23 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,14 +801,14 @@
       <c r="J1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="47" t="s">
         <v>32</v>
       </c>
       <c r="M1" s="20"/>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="47"/>
+      <c r="O1" s="49"/>
       <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -887,10 +887,10 @@
         <v>34</v>
       </c>
       <c r="M3" s="23"/>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="47"/>
+      <c r="O3" s="49"/>
       <c r="P3" s="25"/>
     </row>
     <row r="4" spans="1:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -990,12 +990,12 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="13">
         <v>0.5</v>
       </c>
@@ -1011,10 +1011,10 @@
         <v>39</v>
       </c>
       <c r="M6" s="24"/>
-      <c r="N6" s="47" t="s">
+      <c r="N6" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="47"/>
+      <c r="O6" s="49"/>
       <c r="P6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -1031,17 +1031,17 @@
       <c r="L7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="48">
+      <c r="M7" s="45">
         <f>$C$20</f>
         <v>7907.5729464285705</v>
       </c>
-      <c r="N7" s="45" t="s">
+      <c r="N7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="45" t="s">
+      <c r="P7" s="47" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1142,19 +1142,19 @@
       <c r="L11" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="48">
+      <c r="M11" s="45">
         <f>-$C$20</f>
         <v>-7907.5729464285705</v>
       </c>
-      <c r="N11" s="48">
+      <c r="N11" s="45">
         <f>M11+N10</f>
         <v>-3515.226476086048</v>
       </c>
-      <c r="O11" s="48">
+      <c r="O11" s="45">
         <f t="shared" ref="O11:P11" si="3">N11+O10</f>
         <v>337.70902421440996</v>
       </c>
-      <c r="P11" s="48">
+      <c r="P11" s="45">
         <f t="shared" si="3"/>
         <v>3717.4770069341098</v>
       </c>
@@ -1303,6 +1303,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
@@ -1311,11 +1316,6 @@
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="P11:P12"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1326,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD305A8A-3BC0-4D1A-A327-B0E46C22B4BB}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12:P12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,14 +1376,14 @@
       <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="47" t="s">
         <v>32</v>
       </c>
       <c r="M1" s="20"/>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="47"/>
+      <c r="O1" s="49"/>
       <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1402,18 +1402,18 @@
         <v>6.8452380952380949</v>
       </c>
       <c r="F2" s="8">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G2" s="17">
         <f>E2*F2</f>
-        <v>547.61904761904759</v>
+        <v>821.42857142857133</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="18">
         <f>G4</f>
-        <v>821.42857142857133</v>
+        <v>1232.1428571428569</v>
       </c>
       <c r="L2" s="46"/>
       <c r="M2" s="26">
@@ -1430,12 +1430,12 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="13">
         <v>0.5</v>
       </c>
@@ -1444,16 +1444,16 @@
       </c>
       <c r="J3" s="18">
         <f>C9</f>
-        <v>123.21428571428571</v>
+        <v>184.82142857142856</v>
       </c>
       <c r="L3" s="22" t="s">
         <v>34</v>
       </c>
       <c r="M3" s="23"/>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="47"/>
+      <c r="O3" s="49"/>
       <c r="P3" s="25"/>
     </row>
     <row r="4" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1465,14 +1465,14 @@
       <c r="F4" s="11"/>
       <c r="G4" s="17">
         <f>SUM(G2:G2)+SUM(G2:G2)*G3</f>
-        <v>821.42857142857133</v>
+        <v>1232.1428571428569</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="18">
         <f>C10</f>
-        <v>326.84642857142853</v>
+        <v>490.26964285714274</v>
       </c>
       <c r="L4" s="22" t="s">
         <v>36</v>
@@ -1482,15 +1482,15 @@
       </c>
       <c r="N4" s="31">
         <f>$C$17</f>
-        <v>13068.032752380952</v>
+        <v>12968.715795238099</v>
       </c>
       <c r="O4" s="31">
         <f>$C$17</f>
-        <v>13068.032752380952</v>
+        <v>12968.715795238099</v>
       </c>
       <c r="P4" s="31">
         <f>$C$17</f>
-        <v>13068.032752380952</v>
+        <v>12968.715795238099</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="J5" s="18">
         <f>C11</f>
-        <v>985.71428571428567</v>
+        <v>1478.5714285714284</v>
       </c>
       <c r="L5" s="22" t="s">
         <v>38</v>
@@ -1516,15 +1516,15 @@
       </c>
       <c r="N5" s="31">
         <f>N4*N12</f>
-        <v>11880.029774891775</v>
+        <v>11789.741632034635</v>
       </c>
       <c r="O5" s="31">
         <f>O4*O12</f>
-        <v>10800.027068083431</v>
+        <v>10717.946938213303</v>
       </c>
       <c r="P5" s="31">
         <f>P4*P12</f>
-        <v>9818.2064255303885</v>
+        <v>9743.5881256484554</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="J6" s="18">
         <f>SUM(J2:J5)</f>
-        <v>2257.2035714285712</v>
+        <v>3385.8053571428563</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="22" t="s">
         <v>39</v>
       </c>
       <c r="M6" s="24"/>
-      <c r="N6" s="47" t="s">
+      <c r="N6" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="47"/>
+      <c r="O6" s="49"/>
       <c r="P6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="75" x14ac:dyDescent="0.25">
@@ -1587,9 +1587,9 @@
       <c r="L7" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="44">
         <f>$C$13</f>
-        <v>2482.9239285714284</v>
+        <v>3724.3858928571422</v>
       </c>
       <c r="N7" s="35" t="s">
         <v>42</v>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="M8" s="32">
         <f>$C$13</f>
-        <v>2482.9239285714284</v>
+        <v>3724.3858928571422</v>
       </c>
       <c r="N8" s="26" t="s">
         <v>42</v>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="C9" s="18">
         <f>G4*B7/100</f>
-        <v>123.21428571428571</v>
+        <v>184.82142857142856</v>
       </c>
       <c r="D9" s="16"/>
       <c r="L9" s="22" t="s">
@@ -1633,19 +1633,19 @@
       </c>
       <c r="M9" s="32">
         <f>-$C$13</f>
-        <v>-2482.9239285714284</v>
+        <v>-3724.3858928571422</v>
       </c>
       <c r="N9" s="31">
         <f>N4*N12</f>
-        <v>11880.029774891775</v>
+        <v>11789.741632034635</v>
       </c>
       <c r="O9" s="31">
         <f>O4*O12</f>
-        <v>10800.027068083431</v>
+        <v>10717.946938213303</v>
       </c>
       <c r="P9" s="31">
         <f>P4*P12</f>
-        <v>9818.2064255303885</v>
+        <v>9743.5881256484554</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="56.25" x14ac:dyDescent="0.25">
@@ -1654,30 +1654,30 @@
       </c>
       <c r="C10" s="18">
         <f>(G4+C9)*C7/100</f>
-        <v>326.84642857142853</v>
+        <v>490.26964285714274</v>
       </c>
       <c r="L10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="48">
+      <c r="M10" s="45">
         <f>-$C$13</f>
-        <v>-2482.9239285714284</v>
-      </c>
-      <c r="N10" s="48">
+        <v>-3724.3858928571422</v>
+      </c>
+      <c r="N10" s="45">
         <f>M10+N9</f>
-        <v>9397.1058463203462</v>
-      </c>
-      <c r="O10" s="48">
+        <v>8065.3557391774921</v>
+      </c>
+      <c r="O10" s="45">
         <f t="shared" ref="O10:P10" si="0">N10+O9</f>
-        <v>20197.132914403777</v>
-      </c>
-      <c r="P10" s="48">
+        <v>18783.302677390795</v>
+      </c>
+      <c r="P10" s="45">
         <f t="shared" si="0"/>
-        <v>30015.339339934166</v>
+        <v>28526.890803039249</v>
       </c>
       <c r="Q10" s="15">
         <f>SUM(N9:P9)</f>
-        <v>32498.263268505594</v>
+        <v>32251.276695896391</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="C11" s="18">
         <f>G4*D7/100</f>
-        <v>985.71428571428567</v>
+        <v>1478.5714285714284</v>
       </c>
       <c r="L11" s="22" t="s">
         <v>46</v>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="C12" s="42">
         <f>J6*10/100</f>
-        <v>225.7203571428571</v>
+        <v>338.58053571428565</v>
       </c>
       <c r="L12" s="22" t="s">
         <v>47</v>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="C13" s="18">
         <f>J6+C12</f>
-        <v>2482.9239285714284</v>
+        <v>3724.3858928571422</v>
       </c>
       <c r="M13" s="33">
         <v>1</v>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="C15" s="42">
         <f>E7-C14-C13/1000</f>
-        <v>163.3504094047619</v>
+        <v>162.10894744047621</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="C16" s="42">
         <f>C15*F7</f>
-        <v>16335.04094047619</v>
+        <v>16210.894744047622</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="C17" s="42">
         <f>C16-(C16*20/100)</f>
-        <v>13068.032752380952</v>
+        <v>12968.715795238099</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -1787,20 +1787,20 @@
       </c>
       <c r="C18" s="43">
         <f>SUM(N9:P9)/C13</f>
-        <v>13.08870678418398</v>
+        <v>8.6594884696964094</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N6:O6"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ТЭО.xlsx
+++ b/ТЭО.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EE5D9A-4517-41E4-9C84-BF323F0898CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FF094D-8F60-408C-83B4-7D1CE847B27B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
   <si>
     <t xml:space="preserve">Исполнитель </t>
   </si>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD305A8A-3BC0-4D1A-A327-B0E46C22B4BB}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,7 +1343,7 @@
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
     <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
     <col min="15" max="15" width="11.85546875" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -1477,8 +1477,9 @@
       <c r="L4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="26" t="s">
-        <v>37</v>
+      <c r="M4" s="31">
+        <f>$C$17</f>
+        <v>12968.715795238099</v>
       </c>
       <c r="N4" s="31">
         <f>$C$17</f>
@@ -1511,20 +1512,21 @@
       <c r="L5" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="26" t="s">
-        <v>37</v>
+      <c r="M5" s="31">
+        <f>M4*M12</f>
+        <v>12968.715795238099</v>
       </c>
       <c r="N5" s="31">
         <f>N4*N12</f>
-        <v>11789.741632034635</v>
+        <v>11376.066487050963</v>
       </c>
       <c r="O5" s="31">
         <f>O4*O12</f>
-        <v>10717.946938213303</v>
+        <v>9979.005690395581</v>
       </c>
       <c r="P5" s="31">
         <f>P4*P12</f>
-        <v>9743.5881256484554</v>
+        <v>8753.5137635048941</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1582,7 +1584,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="5">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L7" s="27" t="s">
         <v>50</v>
@@ -1632,20 +1634,20 @@
         <v>44</v>
       </c>
       <c r="M9" s="32">
-        <f>-$C$13</f>
-        <v>-3724.3858928571422</v>
+        <f>-$C$13+M4*M12</f>
+        <v>9244.3299023809559</v>
       </c>
       <c r="N9" s="31">
         <f>N4*N12</f>
-        <v>11789.741632034635</v>
+        <v>11376.066487050963</v>
       </c>
       <c r="O9" s="31">
         <f>O4*O12</f>
-        <v>10717.946938213303</v>
+        <v>9979.005690395581</v>
       </c>
       <c r="P9" s="31">
         <f>P4*P12</f>
-        <v>9743.5881256484554</v>
+        <v>8753.5137635048941</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="56.25" x14ac:dyDescent="0.25">
@@ -1660,24 +1662,24 @@
         <v>45</v>
       </c>
       <c r="M10" s="45">
-        <f>-$C$13</f>
-        <v>-3724.3858928571422</v>
+        <f>-$C$13+M9</f>
+        <v>5519.9440095238133</v>
       </c>
       <c r="N10" s="45">
         <f>M10+N9</f>
-        <v>8065.3557391774921</v>
+        <v>16896.010496574774</v>
       </c>
       <c r="O10" s="45">
         <f t="shared" ref="O10:P10" si="0">N10+O9</f>
-        <v>18783.302677390795</v>
+        <v>26875.016186970355</v>
       </c>
       <c r="P10" s="45">
         <f t="shared" si="0"/>
-        <v>28526.890803039249</v>
+        <v>35628.529950475247</v>
       </c>
       <c r="Q10" s="15">
-        <f>SUM(N9:P9)</f>
-        <v>32251.276695896391</v>
+        <f>SUM(M10:P11)</f>
+        <v>84919.50064354419</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1713,15 +1715,15 @@
       </c>
       <c r="N12" s="30">
         <f t="shared" ref="N12:O12" si="1">(1+$G$7)^(1-N13)</f>
-        <v>0.90909090909090906</v>
+        <v>0.8771929824561403</v>
       </c>
       <c r="O12" s="30">
         <f t="shared" si="1"/>
-        <v>0.82644628099173545</v>
+        <v>0.76946752847029842</v>
       </c>
       <c r="P12" s="30">
         <f>(1+$G$7)^(1-P13)</f>
-        <v>0.75131480090157754</v>
+        <v>0.67497151620201612</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1786,8 +1788,8 @@
         <v>49</v>
       </c>
       <c r="C18" s="43">
-        <f>SUM(N9:P9)/C13</f>
-        <v>8.6594884696964094</v>
+        <f>SUM(M9)/C13</f>
+        <v>2.4821085054881946</v>
       </c>
     </row>
   </sheetData>

--- a/ТЭО.xlsx
+++ b/ТЭО.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FF094D-8F60-408C-83B4-7D1CE847B27B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C023E75D-A3CF-4680-B157-CD231F29BF17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="52">
   <si>
     <t xml:space="preserve">Исполнитель </t>
   </si>
@@ -179,14 +180,18 @@
   </si>
   <si>
     <t>Инвестиции в разработку программного средства</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -219,7 +224,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -332,11 +337,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -466,7 +519,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -752,7 +832,7 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="N11" sqref="N11:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,14 +881,14 @@
       <c r="J1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="52" t="s">
         <v>32</v>
       </c>
       <c r="M1" s="20"/>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="49"/>
+      <c r="O1" s="54"/>
       <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -840,7 +920,7 @@
         <f>G7</f>
         <v>2616.0714285714284</v>
       </c>
-      <c r="L2" s="46"/>
+      <c r="L2" s="51"/>
       <c r="M2" s="26">
         <v>2017</v>
       </c>
@@ -887,10 +967,10 @@
         <v>34</v>
       </c>
       <c r="M3" s="23"/>
-      <c r="N3" s="49" t="s">
+      <c r="N3" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="49"/>
+      <c r="O3" s="54"/>
       <c r="P3" s="25"/>
     </row>
     <row r="4" spans="1:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -990,12 +1070,12 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="13">
         <v>0.5</v>
       </c>
@@ -1011,10 +1091,10 @@
         <v>39</v>
       </c>
       <c r="M6" s="24"/>
-      <c r="N6" s="49" t="s">
+      <c r="N6" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="49"/>
+      <c r="O6" s="54"/>
       <c r="P6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -1031,17 +1111,17 @@
       <c r="L7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="50">
         <f>$C$20</f>
         <v>7907.5729464285705</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="47" t="s">
+      <c r="O7" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="47" t="s">
+      <c r="P7" s="52" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1067,10 +1147,10 @@
       <c r="L8" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
     </row>
     <row r="9" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9">
@@ -1109,7 +1189,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L10" s="22" t="s">
         <v>44</v>
       </c>
@@ -1142,19 +1222,19 @@
       <c r="L11" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="50">
         <f>-$C$20</f>
         <v>-7907.5729464285705</v>
       </c>
-      <c r="N11" s="45">
+      <c r="N11" s="50">
         <f>M11+N10</f>
         <v>-3515.226476086048</v>
       </c>
-      <c r="O11" s="45">
+      <c r="O11" s="50">
         <f t="shared" ref="O11:P11" si="3">N11+O10</f>
         <v>337.70902421440996</v>
       </c>
-      <c r="P11" s="45">
+      <c r="P11" s="50">
         <f t="shared" si="3"/>
         <v>3717.4770069341098</v>
       </c>
@@ -1165,10 +1245,10 @@
       <c r="L12" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
     </row>
     <row r="13" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
@@ -1326,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD305A8A-3BC0-4D1A-A327-B0E46C22B4BB}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,14 +1456,14 @@
       <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="52" t="s">
         <v>32</v>
       </c>
       <c r="M1" s="20"/>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="49"/>
+      <c r="O1" s="54"/>
       <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1415,7 +1495,7 @@
         <f>G4</f>
         <v>1232.1428571428569</v>
       </c>
-      <c r="L2" s="46"/>
+      <c r="L2" s="51"/>
       <c r="M2" s="26">
         <v>2019</v>
       </c>
@@ -1430,12 +1510,12 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="13">
         <v>0.5</v>
       </c>
@@ -1450,10 +1530,10 @@
         <v>34</v>
       </c>
       <c r="M3" s="23"/>
-      <c r="N3" s="49" t="s">
+      <c r="N3" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="49"/>
+      <c r="O3" s="54"/>
       <c r="P3" s="25"/>
     </row>
     <row r="4" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1560,10 +1640,10 @@
         <v>39</v>
       </c>
       <c r="M6" s="24"/>
-      <c r="N6" s="49" t="s">
+      <c r="N6" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="49"/>
+      <c r="O6" s="54"/>
       <c r="P6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="75" x14ac:dyDescent="0.25">
@@ -1661,19 +1741,19 @@
       <c r="L10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="45">
+      <c r="M10" s="50">
         <f>-$C$13+M9</f>
         <v>5519.9440095238133</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N10" s="50">
         <f>M10+N9</f>
         <v>16896.010496574774</v>
       </c>
-      <c r="O10" s="45">
+      <c r="O10" s="50">
         <f t="shared" ref="O10:P10" si="0">N10+O9</f>
         <v>26875.016186970355</v>
       </c>
-      <c r="P10" s="45">
+      <c r="P10" s="50">
         <f t="shared" si="0"/>
         <v>35628.529950475247</v>
       </c>
@@ -1682,7 +1762,7 @@
         <v>84919.50064354419</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1693,10 +1773,10 @@
       <c r="L11" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
     </row>
     <row r="12" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
@@ -1807,4 +1887,908 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F501D56-7545-4FB6-AE08-0B4D75C2FFC2}">
+  <dimension ref="A1:AE18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10:Y11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="57.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="2" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="20"/>
+      <c r="N1" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="54"/>
+      <c r="P1" s="21"/>
+      <c r="S1" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="57"/>
+    </row>
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8">
+        <v>1150</v>
+      </c>
+      <c r="E2" s="7">
+        <f>D2/168</f>
+        <v>6.8452380952380949</v>
+      </c>
+      <c r="F2" s="8">
+        <v>120</v>
+      </c>
+      <c r="G2" s="17">
+        <f>E2*F2</f>
+        <v>821.42857142857133</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="18">
+        <f>G4</f>
+        <v>1232.1428571428569</v>
+      </c>
+      <c r="L2" s="51"/>
+      <c r="M2" s="26">
+        <v>2019</v>
+      </c>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="49">
+        <v>43466</v>
+      </c>
+      <c r="U2" s="49">
+        <v>43497</v>
+      </c>
+      <c r="V2" s="49">
+        <v>43525</v>
+      </c>
+      <c r="W2" s="49">
+        <v>43556</v>
+      </c>
+      <c r="X2" s="49">
+        <v>43586</v>
+      </c>
+      <c r="Y2" s="49">
+        <v>43617</v>
+      </c>
+      <c r="Z2" s="49">
+        <v>43647</v>
+      </c>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+    </row>
+    <row r="3" spans="1:31" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="18">
+        <f>C9</f>
+        <v>184.82142857142856</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="23"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="25"/>
+      <c r="S3" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="23"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="25"/>
+    </row>
+    <row r="4" spans="1:31" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="17">
+        <f>SUM(G2:G2)+SUM(G2:G2)*G3</f>
+        <v>1232.1428571428569</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="18">
+        <f>C10</f>
+        <v>490.26964285714274</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="31">
+        <f>$C$17</f>
+        <v>12968.715795238099</v>
+      </c>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="S4" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="31">
+        <f>$C$17</f>
+        <v>12968.715795238099</v>
+      </c>
+      <c r="U4" s="31">
+        <f>$C$17</f>
+        <v>12968.715795238099</v>
+      </c>
+      <c r="V4" s="31">
+        <f t="shared" ref="V4:AA4" si="0">$C$17</f>
+        <v>12968.715795238099</v>
+      </c>
+      <c r="W4" s="31">
+        <f t="shared" si="0"/>
+        <v>12968.715795238099</v>
+      </c>
+      <c r="X4" s="31">
+        <f>$C$17</f>
+        <v>12968.715795238099</v>
+      </c>
+      <c r="Y4" s="31">
+        <f>$C$17</f>
+        <v>12968.715795238099</v>
+      </c>
+      <c r="Z4" s="31">
+        <f t="shared" si="0"/>
+        <v>12968.715795238099</v>
+      </c>
+      <c r="AA4" s="31">
+        <f t="shared" si="0"/>
+        <v>12968.715795238099</v>
+      </c>
+      <c r="AB4" s="31">
+        <f>$C$17</f>
+        <v>12968.715795238099</v>
+      </c>
+      <c r="AC4" s="31">
+        <f>$C$17</f>
+        <v>12968.715795238099</v>
+      </c>
+      <c r="AD4" s="31">
+        <f t="shared" ref="AD4:AE4" si="1">$C$17</f>
+        <v>12968.715795238099</v>
+      </c>
+      <c r="AE4" s="31">
+        <f t="shared" si="1"/>
+        <v>12968.715795238099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
+      <c r="I5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="18">
+        <f>C11</f>
+        <v>1478.5714285714284</v>
+      </c>
+      <c r="L5" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="31">
+        <f>M4*M12</f>
+        <v>12968.715795238099</v>
+      </c>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="S5" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" s="31">
+        <f>T4*T12</f>
+        <v>1080.7263162698414</v>
+      </c>
+      <c r="U5" s="31">
+        <f>U4*U12</f>
+        <v>2161.4526325396828</v>
+      </c>
+      <c r="V5" s="31">
+        <f t="shared" ref="V5:W5" si="2">V4*V12</f>
+        <v>3242.1789488095246</v>
+      </c>
+      <c r="W5" s="31">
+        <f t="shared" si="2"/>
+        <v>4322.9052650793656</v>
+      </c>
+      <c r="X5" s="31">
+        <f>X4*X12</f>
+        <v>5403.6315813492074</v>
+      </c>
+      <c r="Y5" s="31">
+        <f t="shared" ref="Y5:AE5" si="3">Y4*Y12</f>
+        <v>6484.3578976190483</v>
+      </c>
+      <c r="Z5" s="31">
+        <f t="shared" si="3"/>
+        <v>7565.0842138888902</v>
+      </c>
+      <c r="AA5" s="31">
+        <f t="shared" si="3"/>
+        <v>8645.8105301587311</v>
+      </c>
+      <c r="AB5" s="31">
+        <f t="shared" si="3"/>
+        <v>9726.5368464285748</v>
+      </c>
+      <c r="AC5" s="31">
+        <f t="shared" si="3"/>
+        <v>10807.263162698417</v>
+      </c>
+      <c r="AD5" s="31">
+        <f t="shared" si="3"/>
+        <v>11887.989478968258</v>
+      </c>
+      <c r="AE5" s="31">
+        <f t="shared" si="3"/>
+        <v>12968.715795238099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="18">
+        <f>SUM(J2:J5)</f>
+        <v>3385.8053571428563</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="24"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="26"/>
+      <c r="S6" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="24"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="26"/>
+    </row>
+    <row r="7" spans="1:31" ht="75" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
+        <f>34+0.6</f>
+        <v>34.6</v>
+      </c>
+      <c r="D7" s="5">
+        <v>120</v>
+      </c>
+      <c r="E7" s="5">
+        <v>199</v>
+      </c>
+      <c r="F7" s="5">
+        <v>100</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="44">
+        <f>$C$13</f>
+        <v>3724.3858928571422</v>
+      </c>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="S7" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="45">
+        <f>$C$13</f>
+        <v>3724.3858928571422</v>
+      </c>
+      <c r="U7" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="V7" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="W7" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="X7" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y7" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z7" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA7" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB7" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC7" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD7" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE7" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="32">
+        <f>$C$13</f>
+        <v>3724.3858928571422</v>
+      </c>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="S8" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" s="32">
+        <f>$C$13</f>
+        <v>3724.3858928571422</v>
+      </c>
+      <c r="U8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="W8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="X8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE8" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="18">
+        <f>G4*B7/100</f>
+        <v>184.82142857142856</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="L9" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="32">
+        <f>-$C$13+M4*M12</f>
+        <v>9244.3299023809559</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="S9" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" s="32">
+        <f t="shared" ref="T9:AE9" si="4">-$C$13+T4*T12</f>
+        <v>-2643.6595765873008</v>
+      </c>
+      <c r="U9" s="32">
+        <f t="shared" si="4"/>
+        <v>-1562.9332603174594</v>
+      </c>
+      <c r="V9" s="32">
+        <f t="shared" si="4"/>
+        <v>-482.20694404761753</v>
+      </c>
+      <c r="W9" s="32">
+        <f t="shared" si="4"/>
+        <v>598.51937222222341</v>
+      </c>
+      <c r="X9" s="32">
+        <f t="shared" si="4"/>
+        <v>1679.2456884920653</v>
+      </c>
+      <c r="Y9" s="32">
+        <f t="shared" si="4"/>
+        <v>2759.9720047619062</v>
+      </c>
+      <c r="Z9" s="32">
+        <f t="shared" si="4"/>
+        <v>3840.698321031748</v>
+      </c>
+      <c r="AA9" s="32">
+        <f t="shared" si="4"/>
+        <v>4921.4246373015885</v>
+      </c>
+      <c r="AB9" s="32">
+        <f t="shared" si="4"/>
+        <v>6002.1509535714322</v>
+      </c>
+      <c r="AC9" s="32">
+        <f t="shared" si="4"/>
+        <v>7082.877269841274</v>
+      </c>
+      <c r="AD9" s="32">
+        <f t="shared" si="4"/>
+        <v>8163.6035861111159</v>
+      </c>
+      <c r="AE9" s="32">
+        <f t="shared" si="4"/>
+        <v>9244.3299023809559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="18">
+        <f>(G4+C9)*C7/100</f>
+        <v>490.26964285714274</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="50">
+        <f>-$C$13+M9</f>
+        <v>5519.9440095238133</v>
+      </c>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="15">
+        <f>SUM(M10:P11)</f>
+        <v>5519.9440095238133</v>
+      </c>
+      <c r="S10" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="T10" s="50">
+        <f t="shared" ref="T10:AE10" si="5">-$C$13+T9</f>
+        <v>-6368.0454694444434</v>
+      </c>
+      <c r="U10" s="50">
+        <f t="shared" si="5"/>
+        <v>-5287.3191531746015</v>
+      </c>
+      <c r="V10" s="50">
+        <f t="shared" si="5"/>
+        <v>-4206.5928369047597</v>
+      </c>
+      <c r="W10" s="50">
+        <f t="shared" si="5"/>
+        <v>-3125.8665206349187</v>
+      </c>
+      <c r="X10" s="50">
+        <f t="shared" si="5"/>
+        <v>-2045.1402043650769</v>
+      </c>
+      <c r="Y10" s="50">
+        <f t="shared" si="5"/>
+        <v>-964.41388809523596</v>
+      </c>
+      <c r="Z10" s="50">
+        <f t="shared" si="5"/>
+        <v>116.31242817460588</v>
+      </c>
+      <c r="AA10" s="50">
+        <f t="shared" si="5"/>
+        <v>1197.0387444444464</v>
+      </c>
+      <c r="AB10" s="50">
+        <f t="shared" si="5"/>
+        <v>2277.76506071429</v>
+      </c>
+      <c r="AC10" s="50">
+        <f t="shared" si="5"/>
+        <v>3358.4913769841319</v>
+      </c>
+      <c r="AD10" s="50">
+        <f t="shared" si="5"/>
+        <v>4439.2176932539733</v>
+      </c>
+      <c r="AE10" s="50">
+        <f t="shared" si="5"/>
+        <v>5519.9440095238133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="18">
+        <f>G4*D7/100</f>
+        <v>1478.5714285714284</v>
+      </c>
+      <c r="L11" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="S11" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="51"/>
+    </row>
+    <row r="12" spans="1:31" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="42">
+        <f>J6*10/100</f>
+        <v>338.58053571428565</v>
+      </c>
+      <c r="L12" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="26">
+        <f>(1+$G$7)^(1-M13)</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="S12" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="T12" s="30">
+        <f>((1+$G$7)^(1-T13))/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="U12" s="30">
+        <f>((1+$G$7)^(1-U13)/12)+T12</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="V12" s="30">
+        <f t="shared" ref="V12:W12" si="6">((1+$G$7)^(1-V13)/12)+U12</f>
+        <v>0.25</v>
+      </c>
+      <c r="W12" s="30">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X12" s="30">
+        <f t="shared" ref="X12" si="7">((1+$G$7)^(1-X13)/12)+W12</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="Y12" s="30">
+        <f t="shared" ref="Y12" si="8">((1+$G$7)^(1-Y13)/12)+X12</f>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="Z12" s="30">
+        <f t="shared" ref="Z12" si="9">((1+$G$7)^(1-Z13)/12)+Y12</f>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="AA12" s="30">
+        <f t="shared" ref="AA12" si="10">((1+$G$7)^(1-AA13)/12)+Z12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AB12" s="30">
+        <f t="shared" ref="AB12" si="11">((1+$G$7)^(1-AB13)/12)+AA12</f>
+        <v>0.75</v>
+      </c>
+      <c r="AC12" s="30">
+        <f t="shared" ref="AC12" si="12">((1+$G$7)^(1-AC13)/12)+AB12</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AD12" s="30">
+        <f t="shared" ref="AD12" si="13">((1+$G$7)^(1-AD13)/12)+AC12</f>
+        <v>0.91666666666666674</v>
+      </c>
+      <c r="AE12" s="30">
+        <f t="shared" ref="AE12" si="14">((1+$G$7)^(1-AE13)/12)+AD12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="18">
+        <f>J6+C12</f>
+        <v>3724.3858928571422</v>
+      </c>
+      <c r="M13" s="33">
+        <v>1</v>
+      </c>
+      <c r="N13" s="33">
+        <v>2</v>
+      </c>
+      <c r="O13" s="33">
+        <v>3</v>
+      </c>
+      <c r="P13" s="33">
+        <v>4</v>
+      </c>
+      <c r="T13" s="33">
+        <v>1</v>
+      </c>
+      <c r="U13" s="33">
+        <v>1</v>
+      </c>
+      <c r="V13" s="33">
+        <v>1</v>
+      </c>
+      <c r="W13" s="33">
+        <v>1</v>
+      </c>
+      <c r="X13" s="33">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="33">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="33">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="33">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="33">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="42">
+        <f>E7*20/120</f>
+        <v>33.166666666666664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="42">
+        <f>E7-C14-C13/1000</f>
+        <v>162.10894744047621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="42">
+        <f>C15*F7</f>
+        <v>16210.894744047622</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="42">
+        <f>C16-(C16*20/100)</f>
+        <v>12968.715795238099</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="43">
+        <f>Z9/C13</f>
+        <v>1.03122996153478</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Z10:Z11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ТЭО.xlsx
+++ b/ТЭО.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C023E75D-A3CF-4680-B157-CD231F29BF17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CD317F-B095-4A5E-AD24-6E5BB3E9A27A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,21 +522,24 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -544,9 +547,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -881,14 +881,14 @@
       <c r="J1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="51" t="s">
         <v>32</v>
       </c>
       <c r="M1" s="20"/>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="54"/>
+      <c r="O1" s="53"/>
       <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -920,7 +920,7 @@
         <f>G7</f>
         <v>2616.0714285714284</v>
       </c>
-      <c r="L2" s="51"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="26">
         <v>2017</v>
       </c>
@@ -967,10 +967,10 @@
         <v>34</v>
       </c>
       <c r="M3" s="23"/>
-      <c r="N3" s="54" t="s">
+      <c r="N3" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="54"/>
+      <c r="O3" s="53"/>
       <c r="P3" s="25"/>
     </row>
     <row r="4" spans="1:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1070,12 +1070,12 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="13">
         <v>0.5</v>
       </c>
@@ -1091,10 +1091,10 @@
         <v>39</v>
       </c>
       <c r="M6" s="24"/>
-      <c r="N6" s="54" t="s">
+      <c r="N6" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="54"/>
+      <c r="O6" s="53"/>
       <c r="P6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -1111,17 +1111,17 @@
       <c r="L7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="50">
+      <c r="M7" s="54">
         <f>$C$20</f>
         <v>7907.5729464285705</v>
       </c>
-      <c r="N7" s="52" t="s">
+      <c r="N7" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="52" t="s">
+      <c r="O7" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="52" t="s">
+      <c r="P7" s="51" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1147,10 +1147,10 @@
       <c r="L8" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
     </row>
     <row r="9" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9">
@@ -1189,7 +1189,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L10" s="22" t="s">
         <v>44</v>
       </c>
@@ -1222,19 +1222,19 @@
       <c r="L11" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="50">
+      <c r="M11" s="54">
         <f>-$C$20</f>
         <v>-7907.5729464285705</v>
       </c>
-      <c r="N11" s="50">
+      <c r="N11" s="54">
         <f>M11+N10</f>
         <v>-3515.226476086048</v>
       </c>
-      <c r="O11" s="50">
+      <c r="O11" s="54">
         <f t="shared" ref="O11:P11" si="3">N11+O10</f>
         <v>337.70902421440996</v>
       </c>
-      <c r="P11" s="50">
+      <c r="P11" s="54">
         <f t="shared" si="3"/>
         <v>3717.4770069341098</v>
       </c>
@@ -1245,10 +1245,10 @@
       <c r="L12" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
     </row>
     <row r="13" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
@@ -1383,11 +1383,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N6:O6"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
@@ -1396,6 +1391,11 @@
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="P11:P12"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1456,14 +1456,14 @@
       <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="51" t="s">
         <v>32</v>
       </c>
       <c r="M1" s="20"/>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="54"/>
+      <c r="O1" s="53"/>
       <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1495,7 +1495,7 @@
         <f>G4</f>
         <v>1232.1428571428569</v>
       </c>
-      <c r="L2" s="51"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="26">
         <v>2019</v>
       </c>
@@ -1510,12 +1510,12 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="13">
         <v>0.5</v>
       </c>
@@ -1530,10 +1530,10 @@
         <v>34</v>
       </c>
       <c r="M3" s="23"/>
-      <c r="N3" s="54" t="s">
+      <c r="N3" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="54"/>
+      <c r="O3" s="53"/>
       <c r="P3" s="25"/>
     </row>
     <row r="4" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1640,10 +1640,10 @@
         <v>39</v>
       </c>
       <c r="M6" s="24"/>
-      <c r="N6" s="54" t="s">
+      <c r="N6" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="54"/>
+      <c r="O6" s="53"/>
       <c r="P6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="75" x14ac:dyDescent="0.25">
@@ -1741,19 +1741,19 @@
       <c r="L10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="50">
+      <c r="M10" s="54">
         <f>-$C$13+M9</f>
         <v>5519.9440095238133</v>
       </c>
-      <c r="N10" s="50">
+      <c r="N10" s="54">
         <f>M10+N9</f>
         <v>16896.010496574774</v>
       </c>
-      <c r="O10" s="50">
+      <c r="O10" s="54">
         <f t="shared" ref="O10:P10" si="0">N10+O9</f>
         <v>26875.016186970355</v>
       </c>
-      <c r="P10" s="50">
+      <c r="P10" s="54">
         <f t="shared" si="0"/>
         <v>35628.529950475247</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>84919.50064354419</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1773,10 +1773,10 @@
       <c r="L11" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
     </row>
     <row r="12" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
@@ -1894,7 +1894,7 @@
   <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10:Y11"/>
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1952,27 +1952,27 @@
       <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="51" t="s">
         <v>32</v>
       </c>
       <c r="M1" s="20"/>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="54"/>
+      <c r="O1" s="53"/>
       <c r="P1" s="21"/>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="55" t="s">
+      <c r="T1" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="58"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
@@ -2003,14 +2003,14 @@
         <f>G4</f>
         <v>1232.1428571428569</v>
       </c>
-      <c r="L2" s="51"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="26">
         <v>2019</v>
       </c>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
-      <c r="S2" s="51"/>
+      <c r="S2" s="52"/>
       <c r="T2" s="49">
         <v>43466</v>
       </c>
@@ -2039,12 +2039,12 @@
       <c r="AE2" s="26"/>
     </row>
     <row r="3" spans="1:31" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="13">
         <v>0.5</v>
       </c>
@@ -2059,23 +2059,23 @@
         <v>34</v>
       </c>
       <c r="M3" s="23"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
       <c r="P3" s="25"/>
       <c r="S3" s="46" t="s">
         <v>34</v>
       </c>
       <c r="T3" s="23"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
       <c r="W3" s="25"/>
       <c r="X3" s="23"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
       <c r="AA3" s="25"/>
       <c r="AB3" s="23"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
       <c r="AE3" s="25"/>
     </row>
     <row r="4" spans="1:31" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2266,23 +2266,23 @@
         <v>39</v>
       </c>
       <c r="M6" s="24"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
       <c r="P6" s="26"/>
       <c r="S6" s="46" t="s">
         <v>39</v>
       </c>
       <c r="T6" s="24"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
       <c r="W6" s="26"/>
       <c r="X6" s="24"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
       <c r="AA6" s="26"/>
       <c r="AB6" s="24"/>
-      <c r="AC6" s="54"/>
-      <c r="AD6" s="54"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
       <c r="AE6" s="26"/>
     </row>
     <row r="7" spans="1:31" ht="75" x14ac:dyDescent="0.25">
@@ -2490,13 +2490,13 @@
       <c r="L10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="50">
+      <c r="M10" s="54">
         <f>-$C$13+M9</f>
         <v>5519.9440095238133</v>
       </c>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
       <c r="Q10" s="15">
         <f>SUM(M10:P11)</f>
         <v>5519.9440095238133</v>
@@ -2504,51 +2504,51 @@
       <c r="S10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="T10" s="50">
+      <c r="T10" s="54">
         <f t="shared" ref="T10:AE10" si="5">-$C$13+T9</f>
         <v>-6368.0454694444434</v>
       </c>
-      <c r="U10" s="50">
+      <c r="U10" s="54">
         <f t="shared" si="5"/>
         <v>-5287.3191531746015</v>
       </c>
-      <c r="V10" s="50">
+      <c r="V10" s="54">
         <f t="shared" si="5"/>
         <v>-4206.5928369047597</v>
       </c>
-      <c r="W10" s="50">
+      <c r="W10" s="54">
         <f t="shared" si="5"/>
         <v>-3125.8665206349187</v>
       </c>
-      <c r="X10" s="50">
+      <c r="X10" s="54">
         <f t="shared" si="5"/>
         <v>-2045.1402043650769</v>
       </c>
-      <c r="Y10" s="50">
+      <c r="Y10" s="54">
         <f t="shared" si="5"/>
         <v>-964.41388809523596</v>
       </c>
-      <c r="Z10" s="50">
+      <c r="Z10" s="54">
         <f t="shared" si="5"/>
         <v>116.31242817460588</v>
       </c>
-      <c r="AA10" s="50">
+      <c r="AA10" s="54">
         <f t="shared" si="5"/>
         <v>1197.0387444444464</v>
       </c>
-      <c r="AB10" s="50">
+      <c r="AB10" s="54">
         <f t="shared" si="5"/>
         <v>2277.76506071429</v>
       </c>
-      <c r="AC10" s="50">
+      <c r="AC10" s="54">
         <f t="shared" si="5"/>
         <v>3358.4913769841319</v>
       </c>
-      <c r="AD10" s="50">
+      <c r="AD10" s="54">
         <f t="shared" si="5"/>
         <v>4439.2176932539733</v>
       </c>
-      <c r="AE10" s="50">
+      <c r="AE10" s="54">
         <f t="shared" si="5"/>
         <v>5519.9440095238133</v>
       </c>
@@ -2564,25 +2564,25 @@
       <c r="L11" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
       <c r="S11" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="51"/>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="51"/>
-      <c r="AD11" s="51"/>
-      <c r="AE11" s="51"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="52"/>
     </row>
     <row r="12" spans="1:31" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
@@ -2758,21 +2758,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
     <mergeCell ref="AE10:AE11"/>
     <mergeCell ref="T1:Z1"/>
     <mergeCell ref="AA10:AA11"/>
@@ -2787,6 +2772,21 @@
     <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="Y10:Y11"/>
     <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ТЭО.xlsx
+++ b/ТЭО.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CD317F-B095-4A5E-AD24-6E5BB3E9A27A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EAC2DC-DFFC-4F39-BBFE-A5EADB4F8ACC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="53">
   <si>
     <t xml:space="preserve">Исполнитель </t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Нприб</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -522,32 +525,36 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11:N12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,14 +888,14 @@
       <c r="J1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="52" t="s">
         <v>32</v>
       </c>
       <c r="M1" s="20"/>
-      <c r="N1" s="53" t="s">
+      <c r="N1" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="53"/>
+      <c r="O1" s="54"/>
       <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -920,7 +927,7 @@
         <f>G7</f>
         <v>2616.0714285714284</v>
       </c>
-      <c r="L2" s="52"/>
+      <c r="L2" s="51"/>
       <c r="M2" s="26">
         <v>2017</v>
       </c>
@@ -967,10 +974,10 @@
         <v>34</v>
       </c>
       <c r="M3" s="23"/>
-      <c r="N3" s="53" t="s">
+      <c r="N3" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="53"/>
+      <c r="O3" s="54"/>
       <c r="P3" s="25"/>
     </row>
     <row r="4" spans="1:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1070,12 +1077,12 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="13">
         <v>0.5</v>
       </c>
@@ -1091,10 +1098,10 @@
         <v>39</v>
       </c>
       <c r="M6" s="24"/>
-      <c r="N6" s="53" t="s">
+      <c r="N6" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="53"/>
+      <c r="O6" s="54"/>
       <c r="P6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -1111,17 +1118,17 @@
       <c r="L7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="54">
+      <c r="M7" s="50">
         <f>$C$20</f>
         <v>7907.5729464285705</v>
       </c>
-      <c r="N7" s="51" t="s">
+      <c r="N7" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="51" t="s">
+      <c r="O7" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="51" t="s">
+      <c r="P7" s="52" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1147,10 +1154,10 @@
       <c r="L8" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
     </row>
     <row r="9" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9">
@@ -1222,19 +1229,19 @@
       <c r="L11" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="54">
+      <c r="M11" s="50">
         <f>-$C$20</f>
         <v>-7907.5729464285705</v>
       </c>
-      <c r="N11" s="54">
+      <c r="N11" s="50">
         <f>M11+N10</f>
         <v>-3515.226476086048</v>
       </c>
-      <c r="O11" s="54">
+      <c r="O11" s="50">
         <f t="shared" ref="O11:P11" si="3">N11+O10</f>
         <v>337.70902421440996</v>
       </c>
-      <c r="P11" s="54">
+      <c r="P11" s="50">
         <f t="shared" si="3"/>
         <v>3717.4770069341098</v>
       </c>
@@ -1245,10 +1252,10 @@
       <c r="L12" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
     </row>
     <row r="13" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
@@ -1383,6 +1390,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
@@ -1391,11 +1403,6 @@
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="P11:P12"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1406,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD305A8A-3BC0-4D1A-A327-B0E46C22B4BB}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,14 +1463,14 @@
       <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="52" t="s">
         <v>32</v>
       </c>
       <c r="M1" s="20"/>
-      <c r="N1" s="53" t="s">
+      <c r="N1" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="53"/>
+      <c r="O1" s="54"/>
       <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1495,7 +1502,7 @@
         <f>G4</f>
         <v>1232.1428571428569</v>
       </c>
-      <c r="L2" s="52"/>
+      <c r="L2" s="51"/>
       <c r="M2" s="26">
         <v>2019</v>
       </c>
@@ -1510,12 +1517,12 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="13">
         <v>0.5</v>
       </c>
@@ -1530,10 +1537,10 @@
         <v>34</v>
       </c>
       <c r="M3" s="23"/>
-      <c r="N3" s="53" t="s">
+      <c r="N3" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="53"/>
+      <c r="O3" s="54"/>
       <c r="P3" s="25"/>
     </row>
     <row r="4" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1640,10 +1647,10 @@
         <v>39</v>
       </c>
       <c r="M6" s="24"/>
-      <c r="N6" s="53" t="s">
+      <c r="N6" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="53"/>
+      <c r="O6" s="54"/>
       <c r="P6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="75" x14ac:dyDescent="0.25">
@@ -1741,19 +1748,19 @@
       <c r="L10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="54">
+      <c r="M10" s="50">
         <f>-$C$13+M9</f>
         <v>5519.9440095238133</v>
       </c>
-      <c r="N10" s="54">
+      <c r="N10" s="50">
         <f>M10+N9</f>
         <v>16896.010496574774</v>
       </c>
-      <c r="O10" s="54">
+      <c r="O10" s="50">
         <f t="shared" ref="O10:P10" si="0">N10+O9</f>
         <v>26875.016186970355</v>
       </c>
-      <c r="P10" s="54">
+      <c r="P10" s="50">
         <f t="shared" si="0"/>
         <v>35628.529950475247</v>
       </c>
@@ -1773,10 +1780,10 @@
       <c r="L11" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
     </row>
     <row r="12" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
@@ -1891,10 +1898,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F501D56-7545-4FB6-AE08-0B4D75C2FFC2}">
-  <dimension ref="A1:AE18"/>
+  <dimension ref="A1:AE22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1952,27 +1959,27 @@
       <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="52" t="s">
         <v>32</v>
       </c>
       <c r="M1" s="20"/>
-      <c r="N1" s="53" t="s">
+      <c r="N1" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="53"/>
+      <c r="O1" s="54"/>
       <c r="P1" s="21"/>
-      <c r="S1" s="55" t="s">
+      <c r="S1" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="56" t="s">
+      <c r="T1" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="58"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="57"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
@@ -2003,14 +2010,14 @@
         <f>G4</f>
         <v>1232.1428571428569</v>
       </c>
-      <c r="L2" s="52"/>
+      <c r="L2" s="51"/>
       <c r="M2" s="26">
         <v>2019</v>
       </c>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
-      <c r="S2" s="52"/>
+      <c r="S2" s="51"/>
       <c r="T2" s="49">
         <v>43466</v>
       </c>
@@ -2039,12 +2046,12 @@
       <c r="AE2" s="26"/>
     </row>
     <row r="3" spans="1:31" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="13">
         <v>0.5</v>
       </c>
@@ -2059,23 +2066,23 @@
         <v>34</v>
       </c>
       <c r="M3" s="23"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
       <c r="P3" s="25"/>
       <c r="S3" s="46" t="s">
         <v>34</v>
       </c>
       <c r="T3" s="23"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
       <c r="W3" s="25"/>
       <c r="X3" s="23"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
       <c r="AA3" s="25"/>
       <c r="AB3" s="23"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
       <c r="AE3" s="25"/>
     </row>
     <row r="4" spans="1:31" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2101,7 +2108,7 @@
       </c>
       <c r="M4" s="31">
         <f>$C$17</f>
-        <v>12968.715795238099</v>
+        <v>13292.933690119051</v>
       </c>
       <c r="N4" s="31"/>
       <c r="O4" s="31"/>
@@ -2111,51 +2118,51 @@
       </c>
       <c r="T4" s="31">
         <f>$C$17</f>
-        <v>12968.715795238099</v>
+        <v>13292.933690119051</v>
       </c>
       <c r="U4" s="31">
         <f>$C$17</f>
-        <v>12968.715795238099</v>
+        <v>13292.933690119051</v>
       </c>
       <c r="V4" s="31">
         <f t="shared" ref="V4:AA4" si="0">$C$17</f>
-        <v>12968.715795238099</v>
+        <v>13292.933690119051</v>
       </c>
       <c r="W4" s="31">
         <f t="shared" si="0"/>
-        <v>12968.715795238099</v>
+        <v>13292.933690119051</v>
       </c>
       <c r="X4" s="31">
         <f>$C$17</f>
-        <v>12968.715795238099</v>
+        <v>13292.933690119051</v>
       </c>
       <c r="Y4" s="31">
         <f>$C$17</f>
-        <v>12968.715795238099</v>
+        <v>13292.933690119051</v>
       </c>
       <c r="Z4" s="31">
         <f t="shared" si="0"/>
-        <v>12968.715795238099</v>
+        <v>13292.933690119051</v>
       </c>
       <c r="AA4" s="31">
         <f t="shared" si="0"/>
-        <v>12968.715795238099</v>
+        <v>13292.933690119051</v>
       </c>
       <c r="AB4" s="31">
         <f>$C$17</f>
-        <v>12968.715795238099</v>
+        <v>13292.933690119051</v>
       </c>
       <c r="AC4" s="31">
         <f>$C$17</f>
-        <v>12968.715795238099</v>
+        <v>13292.933690119051</v>
       </c>
       <c r="AD4" s="31">
         <f t="shared" ref="AD4:AE4" si="1">$C$17</f>
-        <v>12968.715795238099</v>
+        <v>13292.933690119051</v>
       </c>
       <c r="AE4" s="31">
         <f t="shared" si="1"/>
-        <v>12968.715795238099</v>
+        <v>13292.933690119051</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2178,7 +2185,7 @@
       </c>
       <c r="M5" s="31">
         <f>M4*M12</f>
-        <v>12968.715795238099</v>
+        <v>13292.933690119051</v>
       </c>
       <c r="N5" s="31"/>
       <c r="O5" s="31"/>
@@ -2188,71 +2195,74 @@
       </c>
       <c r="T5" s="31">
         <f>T4*T12</f>
-        <v>1080.7263162698414</v>
+        <v>1107.7444741765876</v>
       </c>
       <c r="U5" s="31">
         <f>U4*U12</f>
-        <v>2161.4526325396828</v>
+        <v>2215.4889483531751</v>
       </c>
       <c r="V5" s="31">
         <f t="shared" ref="V5:W5" si="2">V4*V12</f>
-        <v>3242.1789488095246</v>
+        <v>3323.2334225297627</v>
       </c>
       <c r="W5" s="31">
         <f t="shared" si="2"/>
-        <v>4322.9052650793656</v>
+        <v>4430.9778967063503</v>
       </c>
       <c r="X5" s="31">
         <f>X4*X12</f>
-        <v>5403.6315813492074</v>
+        <v>5538.722370882937</v>
       </c>
       <c r="Y5" s="31">
         <f t="shared" ref="Y5:AE5" si="3">Y4*Y12</f>
-        <v>6484.3578976190483</v>
+        <v>6646.4668450595245</v>
       </c>
       <c r="Z5" s="31">
         <f t="shared" si="3"/>
-        <v>7565.0842138888902</v>
+        <v>7754.2113192361121</v>
       </c>
       <c r="AA5" s="31">
         <f t="shared" si="3"/>
-        <v>8645.8105301587311</v>
+        <v>8861.9557934127006</v>
       </c>
       <c r="AB5" s="31">
         <f t="shared" si="3"/>
-        <v>9726.5368464285748</v>
+        <v>9969.7002675892873</v>
       </c>
       <c r="AC5" s="31">
         <f t="shared" si="3"/>
-        <v>10807.263162698417</v>
+        <v>11077.444741765876</v>
       </c>
       <c r="AD5" s="31">
         <f t="shared" si="3"/>
-        <v>11887.989478968258</v>
+        <v>12185.189215942464</v>
       </c>
       <c r="AE5" s="31">
         <f t="shared" si="3"/>
-        <v>12968.715795238099</v>
+        <v>13292.933690119051</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="40" t="s">
         <v>6</v>
       </c>
+      <c r="B6" s="41" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="41" t="s">
         <v>48</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>52</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>16</v>
@@ -2266,44 +2276,47 @@
         <v>39</v>
       </c>
       <c r="M6" s="24"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
       <c r="P6" s="26"/>
       <c r="S6" s="46" t="s">
         <v>39</v>
       </c>
       <c r="T6" s="24"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
       <c r="W6" s="26"/>
       <c r="X6" s="24"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
       <c r="AA6" s="26"/>
       <c r="AB6" s="24"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="53"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
       <c r="AE6" s="26"/>
     </row>
     <row r="7" spans="1:31" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>15</v>
+      </c>
       <c r="B7" s="5">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5">
         <f>34+0.6</f>
         <v>34.6</v>
       </c>
+      <c r="C7" s="5">
+        <v>120</v>
+      </c>
       <c r="D7" s="5">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c r="E7" s="5">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="F7" s="5">
-        <v>100</v>
-      </c>
-      <c r="G7" s="5">
         <v>0.14000000000000001</v>
+      </c>
+      <c r="G7" s="60">
+        <v>18</v>
       </c>
       <c r="L7" s="27" t="s">
         <v>50</v>
@@ -2413,7 +2426,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="18">
-        <f>G4*B7/100</f>
+        <f>G4*A7/100</f>
         <v>184.82142857142856</v>
       </c>
       <c r="D9" s="16"/>
@@ -2422,7 +2435,7 @@
       </c>
       <c r="M9" s="32">
         <f>-$C$13+M4*M12</f>
-        <v>9244.3299023809559</v>
+        <v>9568.5477972619083</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31"/>
@@ -2432,51 +2445,51 @@
       </c>
       <c r="T9" s="32">
         <f t="shared" ref="T9:AE9" si="4">-$C$13+T4*T12</f>
-        <v>-2643.6595765873008</v>
+        <v>-2616.6414186805546</v>
       </c>
       <c r="U9" s="32">
         <f t="shared" si="4"/>
-        <v>-1562.9332603174594</v>
+        <v>-1508.896944503967</v>
       </c>
       <c r="V9" s="32">
         <f t="shared" si="4"/>
-        <v>-482.20694404761753</v>
+        <v>-401.15247032737943</v>
       </c>
       <c r="W9" s="32">
         <f t="shared" si="4"/>
-        <v>598.51937222222341</v>
+        <v>706.59200384920814</v>
       </c>
       <c r="X9" s="32">
         <f t="shared" si="4"/>
-        <v>1679.2456884920653</v>
+        <v>1814.3364780257948</v>
       </c>
       <c r="Y9" s="32">
         <f t="shared" si="4"/>
-        <v>2759.9720047619062</v>
+        <v>2922.0809522023824</v>
       </c>
       <c r="Z9" s="32">
         <f t="shared" si="4"/>
-        <v>3840.698321031748</v>
+        <v>4029.82542637897</v>
       </c>
       <c r="AA9" s="32">
         <f t="shared" si="4"/>
-        <v>4921.4246373015885</v>
+        <v>5137.569900555558</v>
       </c>
       <c r="AB9" s="32">
         <f t="shared" si="4"/>
-        <v>6002.1509535714322</v>
+        <v>6245.3143747321446</v>
       </c>
       <c r="AC9" s="32">
         <f t="shared" si="4"/>
-        <v>7082.877269841274</v>
+        <v>7353.0588489087331</v>
       </c>
       <c r="AD9" s="32">
         <f t="shared" si="4"/>
-        <v>8163.6035861111159</v>
+        <v>8460.8033230853216</v>
       </c>
       <c r="AE9" s="32">
         <f t="shared" si="4"/>
-        <v>9244.3299023809559</v>
+        <v>9568.5477972619083</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="56.25" x14ac:dyDescent="0.25">
@@ -2484,73 +2497,73 @@
         <v>31</v>
       </c>
       <c r="C10" s="18">
-        <f>(G4+C9)*C7/100</f>
+        <f>(G4+C9)*B7/100</f>
         <v>490.26964285714274</v>
       </c>
       <c r="L10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="54">
+      <c r="M10" s="50">
         <f>-$C$13+M9</f>
-        <v>5519.9440095238133</v>
-      </c>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
+        <v>5844.1619044047657</v>
+      </c>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
       <c r="Q10" s="15">
         <f>SUM(M10:P11)</f>
-        <v>5519.9440095238133</v>
+        <v>5844.1619044047657</v>
       </c>
       <c r="S10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="T10" s="54">
+      <c r="T10" s="50">
         <f t="shared" ref="T10:AE10" si="5">-$C$13+T9</f>
-        <v>-6368.0454694444434</v>
-      </c>
-      <c r="U10" s="54">
+        <v>-6341.0273115376967</v>
+      </c>
+      <c r="U10" s="50">
         <f t="shared" si="5"/>
-        <v>-5287.3191531746015</v>
-      </c>
-      <c r="V10" s="54">
+        <v>-5233.2828373611092</v>
+      </c>
+      <c r="V10" s="50">
         <f t="shared" si="5"/>
-        <v>-4206.5928369047597</v>
-      </c>
-      <c r="W10" s="54">
+        <v>-4125.5383631845216</v>
+      </c>
+      <c r="W10" s="50">
         <f t="shared" si="5"/>
-        <v>-3125.8665206349187</v>
-      </c>
-      <c r="X10" s="54">
+        <v>-3017.793889007934</v>
+      </c>
+      <c r="X10" s="50">
         <f t="shared" si="5"/>
-        <v>-2045.1402043650769</v>
-      </c>
-      <c r="Y10" s="54">
+        <v>-1910.0494148313473</v>
+      </c>
+      <c r="Y10" s="50">
         <f t="shared" si="5"/>
-        <v>-964.41388809523596</v>
-      </c>
-      <c r="Z10" s="54">
+        <v>-802.30494065475978</v>
+      </c>
+      <c r="Z10" s="50">
         <f t="shared" si="5"/>
-        <v>116.31242817460588</v>
-      </c>
-      <c r="AA10" s="54">
+        <v>305.4395335218278</v>
+      </c>
+      <c r="AA10" s="50">
         <f t="shared" si="5"/>
-        <v>1197.0387444444464</v>
-      </c>
-      <c r="AB10" s="54">
+        <v>1413.1840076984158</v>
+      </c>
+      <c r="AB10" s="50">
         <f t="shared" si="5"/>
-        <v>2277.76506071429</v>
-      </c>
-      <c r="AC10" s="54">
+        <v>2520.9284818750025</v>
+      </c>
+      <c r="AC10" s="50">
         <f t="shared" si="5"/>
-        <v>3358.4913769841319</v>
-      </c>
-      <c r="AD10" s="54">
+        <v>3628.672956051591</v>
+      </c>
+      <c r="AD10" s="50">
         <f t="shared" si="5"/>
-        <v>4439.2176932539733</v>
-      </c>
-      <c r="AE10" s="54">
+        <v>4736.417430228179</v>
+      </c>
+      <c r="AE10" s="50">
         <f t="shared" si="5"/>
-        <v>5519.9440095238133</v>
+        <v>5844.1619044047657</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2558,31 +2571,31 @@
         <v>9</v>
       </c>
       <c r="C11" s="18">
-        <f>G4*D7/100</f>
+        <f>G4*C7/100</f>
         <v>1478.5714285714284</v>
       </c>
       <c r="L11" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
       <c r="S11" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="52"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="52"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="51"/>
     </row>
     <row r="12" spans="1:31" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
@@ -2596,7 +2609,7 @@
         <v>47</v>
       </c>
       <c r="M12" s="26">
-        <f>(1+$G$7)^(1-M13)</f>
+        <f>(1+$F$7)^(1-M13)</f>
         <v>1</v>
       </c>
       <c r="N12" s="30"/>
@@ -2606,51 +2619,51 @@
         <v>47</v>
       </c>
       <c r="T12" s="30">
-        <f>((1+$G$7)^(1-T13))/12</f>
+        <f>((1+$F$7)^(1-T13))/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="U12" s="30">
-        <f>((1+$G$7)^(1-U13)/12)+T12</f>
+        <f>((1+$F$7)^(1-U13)/12)+T12</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="V12" s="30">
-        <f t="shared" ref="V12:W12" si="6">((1+$G$7)^(1-V13)/12)+U12</f>
+        <f>((1+$F$7)^(1-V13)/12)+U12</f>
         <v>0.25</v>
       </c>
       <c r="W12" s="30">
-        <f t="shared" si="6"/>
+        <f>((1+$F$7)^(1-W13)/12)+V12</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="X12" s="30">
-        <f t="shared" ref="X12" si="7">((1+$G$7)^(1-X13)/12)+W12</f>
+        <f>((1+$F$7)^(1-X13)/12)+W12</f>
         <v>0.41666666666666663</v>
       </c>
       <c r="Y12" s="30">
-        <f t="shared" ref="Y12" si="8">((1+$G$7)^(1-Y13)/12)+X12</f>
+        <f>((1+$F$7)^(1-Y13)/12)+X12</f>
         <v>0.49999999999999994</v>
       </c>
       <c r="Z12" s="30">
-        <f t="shared" ref="Z12" si="9">((1+$G$7)^(1-Z13)/12)+Y12</f>
+        <f>((1+$F$7)^(1-Z13)/12)+Y12</f>
         <v>0.58333333333333326</v>
       </c>
       <c r="AA12" s="30">
-        <f t="shared" ref="AA12" si="10">((1+$G$7)^(1-AA13)/12)+Z12</f>
+        <f>((1+$F$7)^(1-AA13)/12)+Z12</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="AB12" s="30">
-        <f t="shared" ref="AB12" si="11">((1+$G$7)^(1-AB13)/12)+AA12</f>
+        <f>((1+$F$7)^(1-AB13)/12)+AA12</f>
         <v>0.75</v>
       </c>
       <c r="AC12" s="30">
-        <f t="shared" ref="AC12" si="12">((1+$G$7)^(1-AC13)/12)+AB12</f>
+        <f>((1+$F$7)^(1-AC13)/12)+AB12</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="AD12" s="30">
-        <f t="shared" ref="AD12" si="13">((1+$G$7)^(1-AD13)/12)+AC12</f>
+        <f>((1+$F$7)^(1-AD13)/12)+AC12</f>
         <v>0.91666666666666674</v>
       </c>
       <c r="AE12" s="30">
-        <f t="shared" ref="AE12" si="14">((1+$G$7)^(1-AE13)/12)+AD12</f>
+        <f>((1+$F$7)^(1-AE13)/12)+AD12</f>
         <v>1</v>
       </c>
     </row>
@@ -2716,7 +2729,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="42">
-        <f>E7*20/120</f>
+        <f>D7*20/120</f>
         <v>33.166666666666664</v>
       </c>
     </row>
@@ -2725,7 +2738,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="42">
-        <f>E7-C14-C13/1000</f>
+        <f>D7-C14-C13/1000</f>
         <v>162.10894744047621</v>
       </c>
     </row>
@@ -2734,30 +2747,49 @@
         <v>28</v>
       </c>
       <c r="C16" s="42">
-        <f>C15*F7</f>
+        <f>C15*E7</f>
         <v>16210.894744047622</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="42">
-        <f>C16-(C16*20/100)</f>
-        <v>12968.715795238099</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+        <f>C16-(C16*G7/100)</f>
+        <v>13292.933690119051</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C18" s="43">
-        <f>Z9/C13</f>
-        <v>1.03122996153478</v>
-      </c>
+        <f>M9/C13</f>
+        <v>2.5691612181253993</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z21" s="16"/>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z22" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P10:P11"/>
     <mergeCell ref="AE10:AE11"/>
     <mergeCell ref="T1:Z1"/>
     <mergeCell ref="AA10:AA11"/>
@@ -2774,19 +2806,6 @@
     <mergeCell ref="Z10:Z11"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="U6:V6"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ТЭО.xlsx
+++ b/ТЭО.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FD8372-A8AE-4DA0-992C-13ED7D716A47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE4A1F2-75E6-485D-9F0C-A4849BBBA285}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Мой расчет" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Мой расчет (14.05.19)" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="52">
   <si>
     <t xml:space="preserve">Исполнитель </t>
   </si>
@@ -339,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -473,8 +474,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -761,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F501D56-7545-4FB6-AE08-0B4D75C2FFC2}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,14 +824,14 @@
       <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="52" t="s">
         <v>32</v>
       </c>
       <c r="M1" s="19"/>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="51"/>
+      <c r="O1" s="54"/>
       <c r="P1" s="20"/>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -830,27 +843,27 @@
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8">
-        <v>1150</v>
+        <v>1500</v>
       </c>
       <c r="E2" s="7">
         <f>D2/168</f>
-        <v>6.8452380952380949</v>
+        <v>8.9285714285714288</v>
       </c>
       <c r="F2" s="8">
         <v>120</v>
       </c>
       <c r="G2" s="16">
         <f>E2*F2</f>
-        <v>821.42857142857133</v>
+        <v>1071.4285714285716</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="17">
         <f>G4</f>
-        <v>1232.1428571428569</v>
-      </c>
-      <c r="L2" s="50"/>
+        <v>1607.1428571428573</v>
+      </c>
+      <c r="L2" s="53"/>
       <c r="M2" s="25">
         <v>2019</v>
       </c>
@@ -859,12 +872,12 @@
       <c r="P2" s="25"/>
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
       <c r="G3" s="13">
         <v>0.5</v>
       </c>
@@ -873,14 +886,14 @@
       </c>
       <c r="J3" s="17">
         <f>C9</f>
-        <v>184.82142857142856</v>
+        <v>241.07142857142858</v>
       </c>
       <c r="L3" s="43" t="s">
         <v>34</v>
       </c>
       <c r="M3" s="22"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -892,21 +905,21 @@
       <c r="F4" s="11"/>
       <c r="G4" s="16">
         <f>SUM(G2:G2)+SUM(G2:G2)*G3</f>
-        <v>1232.1428571428569</v>
+        <v>1607.1428571428573</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="17">
         <f>C10</f>
-        <v>490.26964285714274</v>
+        <v>639.482142857143</v>
       </c>
       <c r="L4" s="43" t="s">
         <v>36</v>
       </c>
       <c r="M4" s="30">
         <f>$C$17</f>
-        <v>13292.933690119051</v>
+        <v>13199.985972619048</v>
       </c>
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
@@ -925,14 +938,14 @@
       </c>
       <c r="J5" s="17">
         <f>C11</f>
-        <v>1478.5714285714284</v>
+        <v>1928.5714285714287</v>
       </c>
       <c r="L5" s="43" t="s">
         <v>38</v>
       </c>
       <c r="M5" s="30">
         <f>M4*M12</f>
-        <v>13292.933690119051</v>
+        <v>13199.985972619048</v>
       </c>
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
@@ -965,15 +978,15 @@
       </c>
       <c r="J6" s="17">
         <f>SUM(J2:J5)</f>
-        <v>3385.8053571428563</v>
+        <v>4416.2678571428578</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="43" t="s">
         <v>39</v>
       </c>
       <c r="M6" s="23"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
       <c r="P6" s="25"/>
     </row>
     <row r="7" spans="1:17" ht="75" x14ac:dyDescent="0.25">
@@ -1002,9 +1015,9 @@
       <c r="L7" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7" s="51">
         <f>$C$13</f>
-        <v>3724.3858928571422</v>
+        <v>4857.8946428571435</v>
       </c>
       <c r="N7" s="44"/>
       <c r="O7" s="44"/>
@@ -1016,7 +1029,7 @@
       </c>
       <c r="M8" s="31">
         <f>$C$13</f>
-        <v>3724.3858928571422</v>
+        <v>4857.8946428571435</v>
       </c>
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
@@ -1028,7 +1041,7 @@
       </c>
       <c r="C9" s="17">
         <f>G4*A7/100</f>
-        <v>184.82142857142856</v>
+        <v>241.07142857142858</v>
       </c>
       <c r="D9" s="15"/>
       <c r="L9" s="43" t="s">
@@ -1036,7 +1049,7 @@
       </c>
       <c r="M9" s="31">
         <f>-$C$13+M4*M12</f>
-        <v>9568.5477972619083</v>
+        <v>8342.0913297619045</v>
       </c>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
@@ -1048,18 +1061,18 @@
       </c>
       <c r="C10" s="17">
         <f>(G4+C9)*B7/100</f>
-        <v>490.26964285714274</v>
+        <v>639.482142857143</v>
       </c>
       <c r="L10" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="52">
+      <c r="M10" s="56">
         <f>-$C$13+M9</f>
-        <v>5844.1619044047657</v>
-      </c>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
+        <v>3484.196686904761</v>
+      </c>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
       <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1068,15 +1081,18 @@
       </c>
       <c r="C11" s="17">
         <f>G4*C7/100</f>
-        <v>1478.5714285714284</v>
+        <v>1928.5714285714287</v>
+      </c>
+      <c r="H11">
+        <v>1500</v>
       </c>
       <c r="L11" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
     </row>
     <row r="12" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
@@ -1084,7 +1100,10 @@
       </c>
       <c r="C12" s="40">
         <f>J6*10/100</f>
-        <v>338.58053571428565</v>
+        <v>441.6267857142858</v>
+      </c>
+      <c r="H12">
+        <v>1.5</v>
       </c>
       <c r="L12" s="43" t="s">
         <v>47</v>
@@ -1112,7 +1131,11 @@
       </c>
       <c r="C13" s="17">
         <f>J6+C12</f>
-        <v>3724.3858928571422</v>
+        <v>4857.8946428571435</v>
+      </c>
+      <c r="H13">
+        <f>H11*H12</f>
+        <v>2250</v>
       </c>
       <c r="M13" s="32">
         <v>1</v>
@@ -1141,8 +1164,8 @@
         <v>27</v>
       </c>
       <c r="C15" s="40">
-        <f>D7-C14-C13/1000</f>
-        <v>162.10894744047621</v>
+        <f>D7-C14-(C13/1000)</f>
+        <v>160.97543869047621</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1151,7 +1174,7 @@
       </c>
       <c r="C16" s="40">
         <f>C15*E7</f>
-        <v>16210.894744047622</v>
+        <v>16097.54386904762</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -1160,7 +1183,7 @@
       </c>
       <c r="C17" s="40">
         <f>C16-(C16*G7/100)</f>
-        <v>13292.933690119051</v>
+        <v>13199.985972619048</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -1169,20 +1192,20 @@
       </c>
       <c r="C18" s="41">
         <f>M9/C13</f>
-        <v>2.5691612181253993</v>
+        <v>1.7172236005628048</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N6:O6"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1190,6 +1213,438 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76CD8E4-BD89-49F8-AC1A-525F5DC45502}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="19"/>
+      <c r="N1" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="54"/>
+      <c r="P1" s="20"/>
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8">
+        <v>1150</v>
+      </c>
+      <c r="E2" s="7">
+        <f>D2/168</f>
+        <v>6.8452380952380949</v>
+      </c>
+      <c r="F2" s="8">
+        <v>120</v>
+      </c>
+      <c r="G2" s="16">
+        <f>E2*F2</f>
+        <v>821.42857142857133</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="17">
+        <f>G4</f>
+        <v>1232.1428571428569</v>
+      </c>
+      <c r="L2" s="53"/>
+      <c r="M2" s="25">
+        <v>2019</v>
+      </c>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="17">
+        <f>C9</f>
+        <v>184.82142857142856</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="22"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="24"/>
+    </row>
+    <row r="4" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="16">
+        <f>SUM(G2:G2)+SUM(G2:G2)*G3</f>
+        <v>1232.1428571428569</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="17">
+        <f>C10</f>
+        <v>490.26964285714274</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="30">
+        <f>$C$17</f>
+        <v>13292.933690119051</v>
+      </c>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+    </row>
+    <row r="5" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="I5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="17">
+        <f>C11</f>
+        <v>1478.5714285714284</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="30">
+        <f>M4*M12</f>
+        <v>13292.933690119051</v>
+      </c>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+    </row>
+    <row r="6" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="17">
+        <f>SUM(J2:J5)</f>
+        <v>3385.8053571428563</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="25"/>
+    </row>
+    <row r="7" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
+        <f>34+0.6</f>
+        <v>34.6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>120</v>
+      </c>
+      <c r="D7" s="5">
+        <v>199</v>
+      </c>
+      <c r="E7" s="5">
+        <v>100</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G7" s="47">
+        <v>18</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="42">
+        <f>$C$13</f>
+        <v>3724.3858928571422</v>
+      </c>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+    </row>
+    <row r="8" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="31">
+        <f>$C$13</f>
+        <v>3724.3858928571422</v>
+      </c>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+    </row>
+    <row r="9" spans="1:17" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="17">
+        <f>G4*A7/100</f>
+        <v>184.82142857142856</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="L9" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="31">
+        <f>-$C$13+M4*M12</f>
+        <v>9568.5477972619083</v>
+      </c>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+    </row>
+    <row r="10" spans="1:17" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="17">
+        <f>(G4+C9)*B7/100</f>
+        <v>490.26964285714274</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="56">
+        <f>-$C$13+M9</f>
+        <v>5844.1619044047657</v>
+      </c>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="17">
+        <f>G4*C7/100</f>
+        <v>1478.5714285714284</v>
+      </c>
+      <c r="L11" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+    </row>
+    <row r="12" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="40">
+        <f>J6*10/100</f>
+        <v>338.58053571428565</v>
+      </c>
+      <c r="L12" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="25">
+        <f>(1+$F$7)^(1-M13)</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="29">
+        <f t="shared" ref="N12:P12" si="0">(1+$F$7)^(1-N13)</f>
+        <v>0.8771929824561403</v>
+      </c>
+      <c r="O12" s="29">
+        <f t="shared" si="0"/>
+        <v>0.76946752847029842</v>
+      </c>
+      <c r="P12" s="29">
+        <f t="shared" si="0"/>
+        <v>0.67497151620201612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="17">
+        <f>J6+C12</f>
+        <v>3724.3858928571422</v>
+      </c>
+      <c r="M13" s="32">
+        <v>1</v>
+      </c>
+      <c r="N13" s="32">
+        <v>2</v>
+      </c>
+      <c r="O13" s="32">
+        <v>3</v>
+      </c>
+      <c r="P13" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="40">
+        <f>D7*20/120</f>
+        <v>33.166666666666664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="40">
+        <f>D7-C14-C13/1000</f>
+        <v>162.10894744047621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="40">
+        <f>C15*E7</f>
+        <v>16210.894744047622</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="40">
+        <f>C16-(C16*G7/100)</f>
+        <v>13292.933690119051</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="41">
+        <f>M9/C13</f>
+        <v>2.5691612181253993</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
@@ -1243,14 +1698,14 @@
       <c r="J1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="52" t="s">
         <v>32</v>
       </c>
       <c r="M1" s="19"/>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="51"/>
+      <c r="O1" s="54"/>
       <c r="P1" s="20"/>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1282,7 +1737,7 @@
         <f>G7</f>
         <v>2616.0714285714284</v>
       </c>
-      <c r="L2" s="50"/>
+      <c r="L2" s="53"/>
       <c r="M2" s="25">
         <v>2017</v>
       </c>
@@ -1329,10 +1784,10 @@
         <v>34</v>
       </c>
       <c r="M3" s="22"/>
-      <c r="N3" s="51" t="s">
+      <c r="N3" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="51"/>
+      <c r="O3" s="54"/>
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1432,12 +1887,12 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
       <c r="G6" s="13">
         <v>0.5</v>
       </c>
@@ -1453,10 +1908,10 @@
         <v>39</v>
       </c>
       <c r="M6" s="23"/>
-      <c r="N6" s="51" t="s">
+      <c r="N6" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="51"/>
+      <c r="O6" s="54"/>
       <c r="P6" s="25"/>
     </row>
     <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -1473,17 +1928,17 @@
       <c r="L7" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="52">
+      <c r="M7" s="56">
         <f>$C$20</f>
         <v>7907.5729464285705</v>
       </c>
-      <c r="N7" s="49" t="s">
+      <c r="N7" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="49" t="s">
+      <c r="O7" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="49" t="s">
+      <c r="P7" s="52" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1509,10 +1964,10 @@
       <c r="L8" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
     </row>
     <row r="9" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9">
@@ -1584,19 +2039,19 @@
       <c r="L11" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="52">
+      <c r="M11" s="56">
         <f>-$C$20</f>
         <v>-7907.5729464285705</v>
       </c>
-      <c r="N11" s="52">
+      <c r="N11" s="56">
         <f>M11+N10</f>
         <v>-3515.226476086048</v>
       </c>
-      <c r="O11" s="52">
+      <c r="O11" s="56">
         <f t="shared" ref="O11:P11" si="3">N11+O10</f>
         <v>337.70902421440996</v>
       </c>
-      <c r="P11" s="52">
+      <c r="P11" s="56">
         <f t="shared" si="3"/>
         <v>3717.4770069341098</v>
       </c>
@@ -1607,10 +2062,10 @@
       <c r="L12" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
     </row>
     <row r="13" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">

--- a/ТЭО.xlsx
+++ b/ТЭО.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE4A1F2-75E6-485D-9F0C-A4849BBBA285}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40263B0B-812E-43B0-87A5-A0663A6050D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Мой расчет" sheetId="3" r:id="rId1"/>
-    <sheet name="Мой расчет (14.05.19)" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Мой расчет" sheetId="5" r:id="rId1"/>
+    <sheet name="Мой расчет16.05.19" sheetId="3" r:id="rId2"/>
+    <sheet name="Мой расчет (14.05.19)" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="52">
   <si>
     <t xml:space="preserve">Исполнитель </t>
   </si>
@@ -340,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -483,14 +484,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,11 +784,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F501D56-7545-4FB6-AE08-0B4D75C2FFC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D62679-FB61-4C55-B431-F78EC11E165D}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,14 +837,14 @@
       <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="58" t="s">
         <v>32</v>
       </c>
       <c r="M1" s="19"/>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="54"/>
+      <c r="O1" s="59"/>
       <c r="P1" s="20"/>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -863,7 +876,7 @@
         <f>G4</f>
         <v>1607.1428571428573</v>
       </c>
-      <c r="L2" s="53"/>
+      <c r="L2" s="57"/>
       <c r="M2" s="25">
         <v>2019</v>
       </c>
@@ -872,12 +885,12 @@
       <c r="P2" s="25"/>
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="13">
         <v>0.5</v>
       </c>
@@ -888,12 +901,454 @@
         <f>C9</f>
         <v>241.07142857142858</v>
       </c>
+      <c r="L3" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="22"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="24"/>
+    </row>
+    <row r="4" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="54"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="16">
+        <f>SUM(G2:G2)+SUM(G2:G2)*G3</f>
+        <v>1607.1428571428573</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="17">
+        <f>C10</f>
+        <v>639.482142857143</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="30">
+        <f>$C$17</f>
+        <v>7919.9915835714301</v>
+      </c>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+    </row>
+    <row r="5" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="I5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="17">
+        <f>C11</f>
+        <v>1928.5714285714287</v>
+      </c>
+      <c r="L5" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="30">
+        <f>M4*M12</f>
+        <v>7919.9915835714301</v>
+      </c>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+    </row>
+    <row r="6" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="17">
+        <f>SUM(J2:J5)</f>
+        <v>4416.2678571428578</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="25"/>
+    </row>
+    <row r="7" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
+        <f>34+0.6</f>
+        <v>34.6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>120</v>
+      </c>
+      <c r="D7" s="5">
+        <v>199</v>
+      </c>
+      <c r="E7" s="5">
+        <v>60</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G7" s="47">
+        <v>18</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="55">
+        <f>$C$13</f>
+        <v>4857.8946428571435</v>
+      </c>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+    </row>
+    <row r="8" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="31">
+        <f>$C$13</f>
+        <v>4857.8946428571435</v>
+      </c>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+    </row>
+    <row r="9" spans="1:17" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="17">
+        <f>G4*A7/100</f>
+        <v>241.07142857142858</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="L9" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="31">
+        <f>-$C$13+M4*M12</f>
+        <v>3062.0969407142866</v>
+      </c>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+    </row>
+    <row r="10" spans="1:17" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="17">
+        <f>(G4+C9)*B7/100</f>
+        <v>639.482142857143</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="56">
+        <f>-$C$13+M9</f>
+        <v>-1795.7977021428569</v>
+      </c>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="17">
+        <f>G4*C7/100</f>
+        <v>1928.5714285714287</v>
+      </c>
+      <c r="H11">
+        <v>1500</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+    </row>
+    <row r="12" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="40">
+        <f>J6*10/100</f>
+        <v>441.6267857142858</v>
+      </c>
+      <c r="H12">
+        <v>1.5</v>
+      </c>
+      <c r="L12" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="25">
+        <f>(1+$F$7)^(1-M13)</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="29">
+        <f t="shared" ref="N12:P12" si="0">(1+$F$7)^(1-N13)</f>
+        <v>0.8771929824561403</v>
+      </c>
+      <c r="O12" s="29">
+        <f t="shared" si="0"/>
+        <v>0.76946752847029842</v>
+      </c>
+      <c r="P12" s="29">
+        <f t="shared" si="0"/>
+        <v>0.67497151620201612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="17">
+        <f>J6+C12</f>
+        <v>4857.8946428571435</v>
+      </c>
+      <c r="H13">
+        <f>H11*H12</f>
+        <v>2250</v>
+      </c>
+      <c r="M13" s="32">
+        <v>1</v>
+      </c>
+      <c r="N13" s="32">
+        <v>2</v>
+      </c>
+      <c r="O13" s="32">
+        <v>3</v>
+      </c>
+      <c r="P13" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="40">
+        <f>D7*20/120</f>
+        <v>33.166666666666664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="40">
+        <f>D7-C14-(C13/1000)</f>
+        <v>160.97543869047621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="40">
+        <f>C15*E7</f>
+        <v>9658.5263214285733</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="40">
+        <f>C16-(C16*G7/100)</f>
+        <v>7919.9915835714301</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="41">
+        <f>C17/C13</f>
+        <v>1.6303341603376831</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F501D56-7545-4FB6-AE08-0B4D75C2FFC2}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="19"/>
+      <c r="N1" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="59"/>
+      <c r="P1" s="20"/>
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8">
+        <v>1500</v>
+      </c>
+      <c r="E2" s="7">
+        <f>D2/168</f>
+        <v>8.9285714285714288</v>
+      </c>
+      <c r="F2" s="8">
+        <v>120</v>
+      </c>
+      <c r="G2" s="16">
+        <f>E2*F2</f>
+        <v>1071.4285714285716</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="17">
+        <f>G4</f>
+        <v>1607.1428571428573</v>
+      </c>
+      <c r="L2" s="57"/>
+      <c r="M2" s="25">
+        <v>2019</v>
+      </c>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="17">
+        <f>C9</f>
+        <v>241.07142857142858</v>
+      </c>
       <c r="L3" s="43" t="s">
         <v>34</v>
       </c>
       <c r="M3" s="22"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -985,8 +1440,8 @@
         <v>39</v>
       </c>
       <c r="M6" s="23"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
       <c r="P6" s="25"/>
     </row>
     <row r="7" spans="1:17" ht="75" x14ac:dyDescent="0.25">
@@ -1089,10 +1544,10 @@
       <c r="L11" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
     </row>
     <row r="12" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
@@ -1197,22 +1652,22 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76CD8E4-BD89-49F8-AC1A-525F5DC45502}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -1266,14 +1721,14 @@
       <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="58" t="s">
         <v>32</v>
       </c>
       <c r="M1" s="19"/>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="54"/>
+      <c r="O1" s="59"/>
       <c r="P1" s="20"/>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1305,7 +1760,7 @@
         <f>G4</f>
         <v>1232.1428571428569</v>
       </c>
-      <c r="L2" s="53"/>
+      <c r="L2" s="57"/>
       <c r="M2" s="25">
         <v>2019</v>
       </c>
@@ -1314,12 +1769,12 @@
       <c r="P2" s="25"/>
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="13">
         <v>0.5</v>
       </c>
@@ -1334,8 +1789,8 @@
         <v>34</v>
       </c>
       <c r="M3" s="22"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1427,8 +1882,8 @@
         <v>39</v>
       </c>
       <c r="M6" s="23"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
       <c r="P6" s="25"/>
     </row>
     <row r="7" spans="1:17" ht="75" x14ac:dyDescent="0.25">
@@ -1528,10 +1983,10 @@
       <c r="L11" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
     </row>
     <row r="12" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
@@ -1644,12 +2099,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1698,14 +2153,14 @@
       <c r="J1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="58" t="s">
         <v>32</v>
       </c>
       <c r="M1" s="19"/>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="54"/>
+      <c r="O1" s="59"/>
       <c r="P1" s="20"/>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1737,7 +2192,7 @@
         <f>G7</f>
         <v>2616.0714285714284</v>
       </c>
-      <c r="L2" s="53"/>
+      <c r="L2" s="57"/>
       <c r="M2" s="25">
         <v>2017</v>
       </c>
@@ -1784,10 +2239,10 @@
         <v>34</v>
       </c>
       <c r="M3" s="22"/>
-      <c r="N3" s="54" t="s">
+      <c r="N3" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="54"/>
+      <c r="O3" s="59"/>
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1887,12 +2342,12 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
       <c r="G6" s="13">
         <v>0.5</v>
       </c>
@@ -1908,10 +2363,10 @@
         <v>39</v>
       </c>
       <c r="M6" s="23"/>
-      <c r="N6" s="54" t="s">
+      <c r="N6" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="54"/>
+      <c r="O6" s="59"/>
       <c r="P6" s="25"/>
     </row>
     <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -1932,13 +2387,13 @@
         <f>$C$20</f>
         <v>7907.5729464285705</v>
       </c>
-      <c r="N7" s="52" t="s">
+      <c r="N7" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="52" t="s">
+      <c r="O7" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="52" t="s">
+      <c r="P7" s="58" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1964,10 +2419,10 @@
       <c r="L8" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
     </row>
     <row r="9" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9">
@@ -2062,10 +2517,10 @@
       <c r="L12" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
     </row>
     <row r="13" spans="1:17" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
@@ -2083,11 +2538,11 @@
         <v>1</v>
       </c>
       <c r="N13" s="29">
-        <f t="shared" ref="N13:P13" si="4">(1+$G$9)^(1-N14)</f>
+        <f>(1+$G$9)^(1-N14)</f>
         <v>0.8771929824561403</v>
       </c>
       <c r="O13" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="N13:P13" si="4">(1+$G$9)^(1-O14)</f>
         <v>0.76946752847029842</v>
       </c>
       <c r="P13" s="29">
